--- a/Saved_file/EM001/2026_08/work_logs_EM001_2026_08.xlsx
+++ b/Saved_file/EM001/2026_08/work_logs_EM001_2026_08.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,17 +478,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-08-04 20:30:45</t>
+          <t>2026-08-21 20:03:44</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FACE_MISMATCH</t>
+          <t>MOUSE_SESSION</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.446</t>
+          <t>Mouse anomaly detected - Score: 0.861</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -498,12 +498,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SESS_20260804_000</t>
+          <t>SESS_20260821_000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -511,34 +511,34 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-08-04</t>
+          <t>2026-08-21</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>20:30:45</t>
+          <t>20:03:44</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-08-15 16:57:08</t>
+          <t>2026-08-22 11:13:36</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TAB_SWITCH</t>
+          <t>SPOOFING_DETECTED</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.239</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SESS_20260815_001</t>
+          <t>SESS_20260822_001</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -561,34 +561,34 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-08-15</t>
+          <t>2026-08-22</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>16:57:08</t>
+          <t>11:13:36</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-08-13 16:29:24</t>
+          <t>2026-08-12 10:59:54</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BEHAVIOR_ANOMALY</t>
+          <t>RAPID_PAUSE_DETECTED</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.826</t>
+          <t>Mouse anomaly detected - Score: 0.802</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SESS_20260813_002</t>
+          <t>SESS_20260812_002</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-08-13</t>
+          <t>2026-08-12</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>16:29:24</t>
+          <t>10:59:54</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -628,17 +628,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-08-11 17:02:29</t>
+          <t>2026-08-09 14:20:25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BEHAVIOR_ANOMALY</t>
+          <t>SESSION_START</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.935</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SESS_20260811_003</t>
+          <t>SESS_20260809_003</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -661,29 +661,29 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-08-11</t>
+          <t>2026-08-09</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>17:02:29</t>
+          <t>14:20:25</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-08-08 15:41:14</t>
+          <t>2026-08-26 19:03:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BROWSER_OPEN</t>
+          <t>TAB_SWITCH</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SESS_20260808_004</t>
+          <t>SESS_20260826_004</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -711,12 +711,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-08-08</t>
+          <t>2026-08-26</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>15:41:14</t>
+          <t>19:03:45</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -728,17 +728,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-08-06 18:45:49</t>
+          <t>2026-08-10 17:04:33</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FACE_MATCH</t>
+          <t>LIVENESS_CHECK</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.390</t>
+          <t>Face verification failed - Similarity: 0.233</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SESS_20260806_005</t>
+          <t>SESS_20260810_005</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -761,15 +761,65 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-08-06</t>
+          <t>2026-08-10</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>18:45:49</t>
+          <t>17:04:33</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
+        <is>
+          <t>Face</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-08-26 16:28:41</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FACE_MATCH</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Face verification failed - Similarity: 0.261</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>EM001</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SESS_20260826_006</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2026-08-26</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>16:28:41</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>Face</t>
         </is>
@@ -786,7 +836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z67"/>
+  <dimension ref="A1:Z64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,7 +979,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-08-02 15:13:04</t>
+          <t>2026-08-03 09:07:22</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -939,7 +989,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.165</t>
+          <t>Mouse session - Score: 0.064</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -949,7 +999,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MOUSE_20260802_000</t>
+          <t>MOUSE_20260803_000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -962,12 +1012,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-08-02</t>
+          <t>2026-08-03</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>15:13:04</t>
+          <t>09:07:22</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -976,58 +1026,58 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>27763</v>
+        <v>6174</v>
       </c>
       <c r="L2" t="n">
-        <v>27763</v>
+        <v>6174</v>
       </c>
       <c r="M2" t="n">
-        <v>13916.96</v>
+        <v>28364.08</v>
       </c>
       <c r="N2" t="n">
-        <v>8350.17</v>
+        <v>17018.45</v>
       </c>
       <c r="O2" t="n">
-        <v>5566.78</v>
+        <v>11345.63</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>91.2</v>
+        <v>129.26</v>
       </c>
       <c r="S2" t="n">
-        <v>152.6</v>
+        <v>219.43</v>
       </c>
       <c r="T2" t="n">
-        <v>43.33</v>
+        <v>15.31</v>
       </c>
       <c r="U2" t="n">
-        <v>91.56</v>
+        <v>131.66</v>
       </c>
       <c r="V2" t="n">
-        <v>61.04</v>
+        <v>87.77</v>
       </c>
       <c r="W2" t="n">
-        <v>23.41</v>
+        <v>25.08</v>
       </c>
       <c r="X2" t="n">
-        <v>8.19</v>
+        <v>5.12</v>
       </c>
       <c r="Y2" t="n">
-        <v>91.2</v>
+        <v>129.26</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.165</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-08-02 11:39:11</t>
+          <t>2026-08-03 16:41:33</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1037,7 +1087,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.199</t>
+          <t>Mouse session - Score: 0.061</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1047,7 +1097,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MOUSE_20260802_001</t>
+          <t>MOUSE_20260803_001</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1060,12 +1110,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-08-02</t>
+          <t>2026-08-03</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>11:39:11</t>
+          <t>16:41:33</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1074,58 +1124,58 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>21305</v>
+        <v>21207</v>
       </c>
       <c r="L3" t="n">
-        <v>21305</v>
+        <v>21207</v>
       </c>
       <c r="M3" t="n">
-        <v>9429.93</v>
+        <v>13841.8</v>
       </c>
       <c r="N3" t="n">
-        <v>5657.96</v>
+        <v>8305.08</v>
       </c>
       <c r="O3" t="n">
-        <v>3771.97</v>
+        <v>5536.72</v>
       </c>
       <c r="P3" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="Q3" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="R3" t="n">
-        <v>143.72</v>
+        <v>168.14</v>
       </c>
       <c r="S3" t="n">
-        <v>65.61</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>31.27</v>
+        <v>23.88</v>
       </c>
       <c r="U3" t="n">
-        <v>39.37</v>
+        <v>49.39</v>
       </c>
       <c r="V3" t="n">
-        <v>26.24</v>
+        <v>32.93</v>
       </c>
       <c r="W3" t="n">
-        <v>11.28</v>
+        <v>19.58</v>
       </c>
       <c r="X3" t="n">
-        <v>28.89</v>
+        <v>16.91</v>
       </c>
       <c r="Y3" t="n">
-        <v>143.72</v>
+        <v>168.14</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.199</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-08-02 17:29:06</t>
+          <t>2026-08-03 09:39:09</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1135,7 +1185,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.155</t>
+          <t>Mouse session - Score: 0.189</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1145,7 +1195,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MOUSE_20260802_002</t>
+          <t>MOUSE_20260803_002</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1158,12 +1208,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-08-02</t>
+          <t>2026-08-03</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>17:29:06</t>
+          <t>09:39:09</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1172,58 +1222,58 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>22684</v>
+        <v>12106</v>
       </c>
       <c r="L4" t="n">
-        <v>22684</v>
+        <v>12106</v>
       </c>
       <c r="M4" t="n">
-        <v>10128.51</v>
+        <v>21824.06</v>
       </c>
       <c r="N4" t="n">
-        <v>6077.11</v>
+        <v>13094.43</v>
       </c>
       <c r="O4" t="n">
-        <v>4051.4</v>
+        <v>8729.620000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="R4" t="n">
-        <v>164.82</v>
+        <v>99.37</v>
       </c>
       <c r="S4" t="n">
-        <v>61.45</v>
+        <v>219.63</v>
       </c>
       <c r="T4" t="n">
-        <v>22.84</v>
+        <v>41.31</v>
       </c>
       <c r="U4" t="n">
-        <v>36.87</v>
+        <v>131.78</v>
       </c>
       <c r="V4" t="n">
-        <v>24.58</v>
+        <v>87.84999999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>24.72</v>
+        <v>28.49</v>
       </c>
       <c r="X4" t="n">
-        <v>25.56</v>
+        <v>22.89</v>
       </c>
       <c r="Y4" t="n">
-        <v>164.82</v>
+        <v>99.37</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.155</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-08-03 11:35:27</t>
+          <t>2026-08-04 15:30:20</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1233,7 +1283,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.101</t>
+          <t>Mouse session - Score: 0.203</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1243,7 +1293,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MOUSE_20260803_000</t>
+          <t>MOUSE_20260804_000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1256,12 +1306,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-08-03</t>
+          <t>2026-08-04</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>11:35:27</t>
+          <t>15:30:20</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1270,58 +1320,58 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>27555</v>
+        <v>11520</v>
       </c>
       <c r="L5" t="n">
-        <v>27555</v>
+        <v>11520</v>
       </c>
       <c r="M5" t="n">
-        <v>10691.11</v>
+        <v>12441.17</v>
       </c>
       <c r="N5" t="n">
-        <v>6414.67</v>
+        <v>7464.7</v>
       </c>
       <c r="O5" t="n">
-        <v>4276.44</v>
+        <v>4976.47</v>
       </c>
       <c r="P5" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="R5" t="n">
-        <v>145.49</v>
+        <v>62.49</v>
       </c>
       <c r="S5" t="n">
-        <v>73.48</v>
+        <v>199.08</v>
       </c>
       <c r="T5" t="n">
-        <v>39.73</v>
+        <v>24.45</v>
       </c>
       <c r="U5" t="n">
-        <v>44.09</v>
+        <v>119.45</v>
       </c>
       <c r="V5" t="n">
-        <v>29.39</v>
+        <v>79.63</v>
       </c>
       <c r="W5" t="n">
-        <v>8.07</v>
+        <v>8.93</v>
       </c>
       <c r="X5" t="n">
-        <v>5.34</v>
+        <v>27.37</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.49</v>
+        <v>62.49</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.101</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-08-03 16:26:33</t>
+          <t>2026-08-04 16:18:53</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1331,7 +1381,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.163</t>
+          <t>Mouse session - Score: 0.868</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1341,25 +1391,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MOUSE_20260803_001</t>
+          <t>MOUSE_20260804_001</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-08-03</t>
+          <t>2026-08-04</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>16:26:33</t>
+          <t>16:18:53</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1368,58 +1418,58 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>24144</v>
+        <v>28214</v>
       </c>
       <c r="L6" t="n">
-        <v>24144</v>
+        <v>28214</v>
       </c>
       <c r="M6" t="n">
-        <v>8787.889999999999</v>
+        <v>15849.82</v>
       </c>
       <c r="N6" t="n">
-        <v>5272.73</v>
+        <v>9509.889999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>3515.15</v>
+        <v>6339.93</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="Q6" t="n">
         <v>5</v>
       </c>
       <c r="R6" t="n">
-        <v>108.2</v>
+        <v>81</v>
       </c>
       <c r="S6" t="n">
-        <v>81.22</v>
+        <v>195.67</v>
       </c>
       <c r="T6" t="n">
-        <v>15.9</v>
+        <v>26.19</v>
       </c>
       <c r="U6" t="n">
-        <v>48.73</v>
+        <v>117.4</v>
       </c>
       <c r="V6" t="n">
-        <v>32.49</v>
+        <v>78.27</v>
       </c>
       <c r="W6" t="n">
-        <v>20.41</v>
+        <v>19.72</v>
       </c>
       <c r="X6" t="n">
-        <v>3.54</v>
+        <v>12.06</v>
       </c>
       <c r="Y6" t="n">
-        <v>108.2</v>
+        <v>81</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.163</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-08-03 16:03:54</t>
+          <t>2026-08-04 14:34:06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1429,7 +1479,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.180</t>
+          <t>Mouse session - Score: 0.932</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1439,25 +1489,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MOUSE_20260803_002</t>
+          <t>MOUSE_20260804_002</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-08-03</t>
+          <t>2026-08-04</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>16:03:54</t>
+          <t>14:34:06</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1466,58 +1516,58 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>23979</v>
+        <v>29064</v>
       </c>
       <c r="L7" t="n">
-        <v>23979</v>
+        <v>29064</v>
       </c>
       <c r="M7" t="n">
-        <v>19086.09</v>
+        <v>30409.78</v>
       </c>
       <c r="N7" t="n">
-        <v>11451.65</v>
+        <v>18245.87</v>
       </c>
       <c r="O7" t="n">
-        <v>7634.44</v>
+        <v>12163.91</v>
       </c>
       <c r="P7" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="Q7" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="R7" t="n">
-        <v>88.34999999999999</v>
+        <v>124.09</v>
       </c>
       <c r="S7" t="n">
-        <v>216.03</v>
+        <v>245.06</v>
       </c>
       <c r="T7" t="n">
-        <v>18.09</v>
+        <v>49.2</v>
       </c>
       <c r="U7" t="n">
-        <v>129.62</v>
+        <v>147.03</v>
       </c>
       <c r="V7" t="n">
-        <v>86.41</v>
+        <v>98.02</v>
       </c>
       <c r="W7" t="n">
-        <v>9.880000000000001</v>
+        <v>5.12</v>
       </c>
       <c r="X7" t="n">
-        <v>13.8</v>
+        <v>17.39</v>
       </c>
       <c r="Y7" t="n">
-        <v>88.34999999999999</v>
+        <v>124.09</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.18</v>
+        <v>0.9320000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-08-04 11:28:43</t>
+          <t>2026-08-05 11:54:12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1527,7 +1577,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.182</t>
+          <t>Mouse session - Score: 0.167</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1537,7 +1587,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MOUSE_20260804_000</t>
+          <t>MOUSE_20260805_000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1550,12 +1600,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-08-04</t>
+          <t>2026-08-05</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>11:28:43</t>
+          <t>11:54:12</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1564,58 +1614,58 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>29299</v>
+        <v>27535</v>
       </c>
       <c r="L8" t="n">
-        <v>29299</v>
+        <v>27535</v>
       </c>
       <c r="M8" t="n">
-        <v>16145.03</v>
+        <v>21800.19</v>
       </c>
       <c r="N8" t="n">
-        <v>9687.02</v>
+        <v>13080.12</v>
       </c>
       <c r="O8" t="n">
-        <v>6458.01</v>
+        <v>8720.08</v>
       </c>
       <c r="P8" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>169.17</v>
+        <v>84.29000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>95.44</v>
+        <v>258.63</v>
       </c>
       <c r="T8" t="n">
-        <v>32.49</v>
+        <v>6.25</v>
       </c>
       <c r="U8" t="n">
-        <v>57.26</v>
+        <v>155.18</v>
       </c>
       <c r="V8" t="n">
-        <v>38.17</v>
+        <v>103.45</v>
       </c>
       <c r="W8" t="n">
-        <v>6.98</v>
+        <v>16.45</v>
       </c>
       <c r="X8" t="n">
-        <v>11.76</v>
+        <v>5.55</v>
       </c>
       <c r="Y8" t="n">
-        <v>169.17</v>
+        <v>84.29000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.182</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-08-04 12:11:56</t>
+          <t>2026-08-05 16:50:32</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1625,7 +1675,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.224</t>
+          <t>Mouse session - Score: 0.099</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1635,7 +1685,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MOUSE_20260804_001</t>
+          <t>MOUSE_20260805_001</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1648,12 +1698,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-08-04</t>
+          <t>2026-08-05</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>12:11:56</t>
+          <t>16:50:32</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1662,58 +1712,58 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>15507</v>
+        <v>15762</v>
       </c>
       <c r="L9" t="n">
-        <v>15507</v>
+        <v>15762</v>
       </c>
       <c r="M9" t="n">
-        <v>38571.94</v>
+        <v>5796.81</v>
       </c>
       <c r="N9" t="n">
-        <v>23143.16</v>
+        <v>3478.08</v>
       </c>
       <c r="O9" t="n">
-        <v>15428.77</v>
+        <v>2318.72</v>
       </c>
       <c r="P9" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="Q9" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R9" t="n">
-        <v>40.81</v>
+        <v>164.73</v>
       </c>
       <c r="S9" t="n">
-        <v>945.0599999999999</v>
+        <v>35.19</v>
       </c>
       <c r="T9" t="n">
-        <v>45.55</v>
+        <v>29.68</v>
       </c>
       <c r="U9" t="n">
-        <v>567.04</v>
+        <v>21.11</v>
       </c>
       <c r="V9" t="n">
-        <v>378.02</v>
+        <v>14.08</v>
       </c>
       <c r="W9" t="n">
-        <v>24.8</v>
+        <v>24.02</v>
       </c>
       <c r="X9" t="n">
-        <v>2.04</v>
+        <v>3.18</v>
       </c>
       <c r="Y9" t="n">
-        <v>40.81</v>
+        <v>164.73</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.224</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-08-04 14:22:11</t>
+          <t>2026-08-05 17:39:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1723,7 +1773,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.124</t>
+          <t>Mouse session - Score: 0.229</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1733,7 +1783,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MOUSE_20260804_002</t>
+          <t>MOUSE_20260805_002</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1746,12 +1796,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-08-04</t>
+          <t>2026-08-05</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>14:22:11</t>
+          <t>17:39:00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1760,58 +1810,58 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>22553</v>
+        <v>6944</v>
       </c>
       <c r="L10" t="n">
-        <v>22553</v>
+        <v>6944</v>
       </c>
       <c r="M10" t="n">
-        <v>6795.42</v>
+        <v>24922.2</v>
       </c>
       <c r="N10" t="n">
-        <v>4077.25</v>
+        <v>14953.32</v>
       </c>
       <c r="O10" t="n">
-        <v>2718.17</v>
+        <v>9968.879999999999</v>
       </c>
       <c r="P10" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Q10" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="R10" t="n">
-        <v>32.84</v>
+        <v>164.57</v>
       </c>
       <c r="S10" t="n">
-        <v>206.93</v>
+        <v>151.44</v>
       </c>
       <c r="T10" t="n">
-        <v>44.55</v>
+        <v>44.19</v>
       </c>
       <c r="U10" t="n">
-        <v>124.16</v>
+        <v>90.86</v>
       </c>
       <c r="V10" t="n">
-        <v>82.77</v>
+        <v>60.58</v>
       </c>
       <c r="W10" t="n">
-        <v>16.02</v>
+        <v>21.03</v>
       </c>
       <c r="X10" t="n">
-        <v>19.89</v>
+        <v>16.65</v>
       </c>
       <c r="Y10" t="n">
-        <v>32.84</v>
+        <v>164.57</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.124</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-08-05 11:12:18</t>
+          <t>2026-08-06 11:18:53</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1821,7 +1871,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.899</t>
+          <t>Mouse session - Score: 0.247</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1831,25 +1881,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MOUSE_20260805_000</t>
+          <t>MOUSE_20260806_000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-08-05</t>
+          <t>2026-08-06</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>11:12:18</t>
+          <t>11:18:53</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1858,58 +1908,58 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>16382</v>
+        <v>24593</v>
       </c>
       <c r="L11" t="n">
-        <v>16382</v>
+        <v>24593</v>
       </c>
       <c r="M11" t="n">
-        <v>37639</v>
+        <v>25704.78</v>
       </c>
       <c r="N11" t="n">
-        <v>22583.4</v>
+        <v>15422.87</v>
       </c>
       <c r="O11" t="n">
-        <v>15055.6</v>
+        <v>10281.91</v>
       </c>
       <c r="P11" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="Q11" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="R11" t="n">
-        <v>155.48</v>
+        <v>149.68</v>
       </c>
       <c r="S11" t="n">
-        <v>242.08</v>
+        <v>171.73</v>
       </c>
       <c r="T11" t="n">
-        <v>42.41</v>
+        <v>16.81</v>
       </c>
       <c r="U11" t="n">
-        <v>145.25</v>
+        <v>103.04</v>
       </c>
       <c r="V11" t="n">
-        <v>96.83</v>
+        <v>68.69</v>
       </c>
       <c r="W11" t="n">
-        <v>27.07</v>
+        <v>24.65</v>
       </c>
       <c r="X11" t="n">
-        <v>22.16</v>
+        <v>16.38</v>
       </c>
       <c r="Y11" t="n">
-        <v>155.48</v>
+        <v>149.68</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.899</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-08-05 13:53:00</t>
+          <t>2026-08-06 15:54:11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1919,7 +1969,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.216</t>
+          <t>Mouse session - Score: 0.236</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1929,7 +1979,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MOUSE_20260805_001</t>
+          <t>MOUSE_20260806_001</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1942,12 +1992,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-08-05</t>
+          <t>2026-08-06</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>13:53:00</t>
+          <t>15:54:11</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1956,58 +2006,58 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>5460</v>
+        <v>27838</v>
       </c>
       <c r="L12" t="n">
-        <v>5460</v>
+        <v>27838</v>
       </c>
       <c r="M12" t="n">
-        <v>13969.02</v>
+        <v>10710.32</v>
       </c>
       <c r="N12" t="n">
-        <v>8381.41</v>
+        <v>6426.19</v>
       </c>
       <c r="O12" t="n">
-        <v>5587.61</v>
+        <v>4284.13</v>
       </c>
       <c r="P12" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="Q12" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R12" t="n">
-        <v>103.67</v>
+        <v>58.23</v>
       </c>
       <c r="S12" t="n">
-        <v>134.75</v>
+        <v>183.93</v>
       </c>
       <c r="T12" t="n">
-        <v>24.41</v>
+        <v>27.11</v>
       </c>
       <c r="U12" t="n">
-        <v>80.84999999999999</v>
+        <v>110.36</v>
       </c>
       <c r="V12" t="n">
-        <v>53.9</v>
+        <v>73.56999999999999</v>
       </c>
       <c r="W12" t="n">
-        <v>14.74</v>
+        <v>7.81</v>
       </c>
       <c r="X12" t="n">
-        <v>15.93</v>
+        <v>10.39</v>
       </c>
       <c r="Y12" t="n">
-        <v>103.67</v>
+        <v>58.23</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.216</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-08-05 12:23:02</t>
+          <t>2026-08-06 14:11:43</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2017,7 +2067,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.214</t>
+          <t>Mouse session - Score: 0.137</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2027,7 +2077,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MOUSE_20260805_002</t>
+          <t>MOUSE_20260806_002</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2040,12 +2090,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-08-05</t>
+          <t>2026-08-06</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>12:23:02</t>
+          <t>14:11:43</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2054,58 +2104,58 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>9250</v>
+        <v>21214</v>
       </c>
       <c r="L13" t="n">
-        <v>9250</v>
+        <v>21214</v>
       </c>
       <c r="M13" t="n">
-        <v>13440.28</v>
+        <v>35653.92</v>
       </c>
       <c r="N13" t="n">
-        <v>8064.17</v>
+        <v>21392.35</v>
       </c>
       <c r="O13" t="n">
-        <v>5376.11</v>
+        <v>14261.57</v>
       </c>
       <c r="P13" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="R13" t="n">
-        <v>67.05</v>
+        <v>100.91</v>
       </c>
       <c r="S13" t="n">
-        <v>200.45</v>
+        <v>353.32</v>
       </c>
       <c r="T13" t="n">
-        <v>15.23</v>
+        <v>10.63</v>
       </c>
       <c r="U13" t="n">
-        <v>120.27</v>
+        <v>211.99</v>
       </c>
       <c r="V13" t="n">
-        <v>80.18000000000001</v>
+        <v>141.33</v>
       </c>
       <c r="W13" t="n">
-        <v>3.53</v>
+        <v>2.31</v>
       </c>
       <c r="X13" t="n">
-        <v>21.01</v>
+        <v>5.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>67.05</v>
+        <v>100.91</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.214</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-08-06 13:02:32</t>
+          <t>2026-08-07 11:48:35</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2115,7 +2165,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.198</t>
+          <t>Mouse session - Score: 0.166</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2125,7 +2175,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MOUSE_20260806_000</t>
+          <t>MOUSE_20260807_000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2138,12 +2188,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-08-06</t>
+          <t>2026-08-07</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>13:02:32</t>
+          <t>11:48:35</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2152,58 +2202,58 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>13235</v>
+        <v>17433</v>
       </c>
       <c r="L14" t="n">
-        <v>13235</v>
+        <v>17433</v>
       </c>
       <c r="M14" t="n">
-        <v>15587.38</v>
+        <v>33231.22</v>
       </c>
       <c r="N14" t="n">
-        <v>9352.43</v>
+        <v>19938.73</v>
       </c>
       <c r="O14" t="n">
-        <v>6234.95</v>
+        <v>13292.49</v>
       </c>
       <c r="P14" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="Q14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="R14" t="n">
-        <v>147.39</v>
+        <v>91.78</v>
       </c>
       <c r="S14" t="n">
-        <v>105.76</v>
+        <v>362.09</v>
       </c>
       <c r="T14" t="n">
-        <v>21.93</v>
+        <v>9.1</v>
       </c>
       <c r="U14" t="n">
-        <v>63.45</v>
+        <v>217.25</v>
       </c>
       <c r="V14" t="n">
-        <v>42.3</v>
+        <v>144.84</v>
       </c>
       <c r="W14" t="n">
-        <v>24.78</v>
+        <v>15.15</v>
       </c>
       <c r="X14" t="n">
-        <v>8.07</v>
+        <v>28.96</v>
       </c>
       <c r="Y14" t="n">
-        <v>147.39</v>
+        <v>91.78</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.198</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-08-06 09:06:31</t>
+          <t>2026-08-07 10:07:45</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2213,7 +2263,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.133</t>
+          <t>Mouse session - Score: 0.091</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2223,7 +2273,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MOUSE_20260806_001</t>
+          <t>MOUSE_20260807_001</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2236,12 +2286,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-08-06</t>
+          <t>2026-08-07</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>09:06:31</t>
+          <t>10:07:45</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2250,58 +2300,58 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>18571</v>
+        <v>14714</v>
       </c>
       <c r="L15" t="n">
-        <v>18571</v>
+        <v>14714</v>
       </c>
       <c r="M15" t="n">
-        <v>6230.84</v>
+        <v>10946.43</v>
       </c>
       <c r="N15" t="n">
-        <v>3738.51</v>
+        <v>6567.86</v>
       </c>
       <c r="O15" t="n">
-        <v>2492.34</v>
+        <v>4378.57</v>
       </c>
       <c r="P15" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="Q15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R15" t="n">
-        <v>115.73</v>
+        <v>98.77</v>
       </c>
       <c r="S15" t="n">
-        <v>53.84</v>
+        <v>110.83</v>
       </c>
       <c r="T15" t="n">
-        <v>47.26</v>
+        <v>48.14</v>
       </c>
       <c r="U15" t="n">
-        <v>32.3</v>
+        <v>66.5</v>
       </c>
       <c r="V15" t="n">
-        <v>21.54</v>
+        <v>44.33</v>
       </c>
       <c r="W15" t="n">
-        <v>23.79</v>
+        <v>27.03</v>
       </c>
       <c r="X15" t="n">
-        <v>28.99</v>
+        <v>16.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>115.73</v>
+        <v>98.77</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.133</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-08-06 13:39:19</t>
+          <t>2026-08-07 11:29:41</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2311,7 +2361,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.217</t>
+          <t>Mouse session - Score: 0.210</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2321,7 +2371,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MOUSE_20260806_002</t>
+          <t>MOUSE_20260807_002</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2334,12 +2384,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-08-06</t>
+          <t>2026-08-07</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>13:39:19</t>
+          <t>11:29:41</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2348,58 +2398,58 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>9696</v>
+        <v>9603</v>
       </c>
       <c r="L16" t="n">
-        <v>9696</v>
+        <v>9603</v>
       </c>
       <c r="M16" t="n">
-        <v>37967.9</v>
+        <v>8767.629999999999</v>
       </c>
       <c r="N16" t="n">
-        <v>22780.74</v>
+        <v>5260.58</v>
       </c>
       <c r="O16" t="n">
-        <v>15187.16</v>
+        <v>3507.05</v>
       </c>
       <c r="P16" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R16" t="n">
-        <v>59.04</v>
+        <v>142.19</v>
       </c>
       <c r="S16" t="n">
-        <v>643.04</v>
+        <v>61.66</v>
       </c>
       <c r="T16" t="n">
-        <v>18.12</v>
+        <v>48.33</v>
       </c>
       <c r="U16" t="n">
-        <v>385.82</v>
+        <v>37</v>
       </c>
       <c r="V16" t="n">
-        <v>257.22</v>
+        <v>24.66</v>
       </c>
       <c r="W16" t="n">
-        <v>25.15</v>
+        <v>22.61</v>
       </c>
       <c r="X16" t="n">
-        <v>18.36</v>
+        <v>19.73</v>
       </c>
       <c r="Y16" t="n">
-        <v>59.04</v>
+        <v>142.19</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.217</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-08-07 16:03:14</t>
+          <t>2026-08-10 11:22:38</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2409,7 +2459,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.229</t>
+          <t>Mouse session - Score: 0.142</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2419,7 +2469,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MOUSE_20260807_000</t>
+          <t>MOUSE_20260810_000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2432,12 +2482,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-08-07</t>
+          <t>2026-08-10</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>16:03:14</t>
+          <t>11:22:38</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2446,58 +2496,58 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>23157</v>
+        <v>14248</v>
       </c>
       <c r="L17" t="n">
-        <v>23157</v>
+        <v>14248</v>
       </c>
       <c r="M17" t="n">
-        <v>7574.1</v>
+        <v>34683.73</v>
       </c>
       <c r="N17" t="n">
-        <v>4544.46</v>
+        <v>20810.24</v>
       </c>
       <c r="O17" t="n">
-        <v>3029.64</v>
+        <v>13873.49</v>
       </c>
       <c r="P17" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="Q17" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="R17" t="n">
-        <v>35.48</v>
+        <v>168.9</v>
       </c>
       <c r="S17" t="n">
-        <v>213.48</v>
+        <v>205.35</v>
       </c>
       <c r="T17" t="n">
-        <v>37.59</v>
+        <v>17.1</v>
       </c>
       <c r="U17" t="n">
-        <v>128.09</v>
+        <v>123.21</v>
       </c>
       <c r="V17" t="n">
-        <v>85.39</v>
+        <v>82.14</v>
       </c>
       <c r="W17" t="n">
-        <v>10.02</v>
+        <v>15.95</v>
       </c>
       <c r="X17" t="n">
-        <v>4.31</v>
+        <v>22.43</v>
       </c>
       <c r="Y17" t="n">
-        <v>35.48</v>
+        <v>168.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.229</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-08-07 17:49:16</t>
+          <t>2026-08-10 10:01:47</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2507,7 +2557,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.248</t>
+          <t>Mouse session - Score: 0.093</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2517,7 +2567,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MOUSE_20260807_001</t>
+          <t>MOUSE_20260810_001</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2530,12 +2580,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-08-07</t>
+          <t>2026-08-10</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>17:49:16</t>
+          <t>10:01:47</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2544,58 +2594,58 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>17555</v>
+        <v>10827</v>
       </c>
       <c r="L18" t="n">
-        <v>17555</v>
+        <v>10827</v>
       </c>
       <c r="M18" t="n">
-        <v>13245.24</v>
+        <v>34580.02</v>
       </c>
       <c r="N18" t="n">
-        <v>7947.14</v>
+        <v>20748.01</v>
       </c>
       <c r="O18" t="n">
-        <v>5298.1</v>
+        <v>13832.01</v>
       </c>
       <c r="P18" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="Q18" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="R18" t="n">
-        <v>160.79</v>
+        <v>118.52</v>
       </c>
       <c r="S18" t="n">
-        <v>82.38</v>
+        <v>291.76</v>
       </c>
       <c r="T18" t="n">
-        <v>6.52</v>
+        <v>18.26</v>
       </c>
       <c r="U18" t="n">
-        <v>49.43</v>
+        <v>175.06</v>
       </c>
       <c r="V18" t="n">
-        <v>32.95</v>
+        <v>116.71</v>
       </c>
       <c r="W18" t="n">
-        <v>24.34</v>
+        <v>9.27</v>
       </c>
       <c r="X18" t="n">
-        <v>2.64</v>
+        <v>8.31</v>
       </c>
       <c r="Y18" t="n">
-        <v>160.79</v>
+        <v>118.52</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.248</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-08-07 11:19:37</t>
+          <t>2026-08-10 11:40:41</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2605,7 +2655,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.226</t>
+          <t>Mouse session - Score: 0.171</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2615,7 +2665,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MOUSE_20260807_002</t>
+          <t>MOUSE_20260810_002</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2628,12 +2678,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-08-07</t>
+          <t>2026-08-10</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>11:19:37</t>
+          <t>11:40:41</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2642,58 +2692,58 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>5828</v>
+        <v>11151</v>
       </c>
       <c r="L19" t="n">
-        <v>5828</v>
+        <v>11151</v>
       </c>
       <c r="M19" t="n">
-        <v>31970.23</v>
+        <v>36664.3</v>
       </c>
       <c r="N19" t="n">
-        <v>19182.14</v>
+        <v>21998.58</v>
       </c>
       <c r="O19" t="n">
-        <v>12788.09</v>
+        <v>14665.72</v>
       </c>
       <c r="P19" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="Q19" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="R19" t="n">
-        <v>94.11</v>
+        <v>177.3</v>
       </c>
       <c r="S19" t="n">
-        <v>339.72</v>
+        <v>206.79</v>
       </c>
       <c r="T19" t="n">
-        <v>38.68</v>
+        <v>20.59</v>
       </c>
       <c r="U19" t="n">
-        <v>203.83</v>
+        <v>124.07</v>
       </c>
       <c r="V19" t="n">
-        <v>135.89</v>
+        <v>82.72</v>
       </c>
       <c r="W19" t="n">
-        <v>27.36</v>
+        <v>28.21</v>
       </c>
       <c r="X19" t="n">
-        <v>24.97</v>
+        <v>27.58</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.11</v>
+        <v>177.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.226</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-08-10 12:16:16</t>
+          <t>2026-08-11 09:49:30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2703,7 +2753,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.226</t>
+          <t>Mouse session - Score: 0.806</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2713,25 +2763,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MOUSE_20260810_000</t>
+          <t>MOUSE_20260811_000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-08-10</t>
+          <t>2026-08-11</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>12:16:16</t>
+          <t>09:49:30</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2740,58 +2790,58 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>21941</v>
+        <v>13632</v>
       </c>
       <c r="L20" t="n">
-        <v>21941</v>
+        <v>13632</v>
       </c>
       <c r="M20" t="n">
-        <v>28210.21</v>
+        <v>18371.38</v>
       </c>
       <c r="N20" t="n">
-        <v>16926.12</v>
+        <v>11022.83</v>
       </c>
       <c r="O20" t="n">
-        <v>11284.08</v>
+        <v>7348.55</v>
       </c>
       <c r="P20" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="Q20" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="R20" t="n">
-        <v>87.90000000000001</v>
+        <v>79.56</v>
       </c>
       <c r="S20" t="n">
-        <v>320.94</v>
+        <v>230.9</v>
       </c>
       <c r="T20" t="n">
-        <v>26.62</v>
+        <v>15.55</v>
       </c>
       <c r="U20" t="n">
-        <v>192.56</v>
+        <v>138.54</v>
       </c>
       <c r="V20" t="n">
-        <v>128.38</v>
+        <v>92.36</v>
       </c>
       <c r="W20" t="n">
-        <v>24.89</v>
+        <v>5.35</v>
       </c>
       <c r="X20" t="n">
-        <v>9.23</v>
+        <v>6.19</v>
       </c>
       <c r="Y20" t="n">
-        <v>87.90000000000001</v>
+        <v>79.56</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.226</v>
+        <v>0.806</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-08-10 15:47:30</t>
+          <t>2026-08-11 09:24:15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2801,7 +2851,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.129</t>
+          <t>Mouse session - Score: 0.152</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2811,7 +2861,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MOUSE_20260810_001</t>
+          <t>MOUSE_20260811_001</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2824,12 +2874,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-08-10</t>
+          <t>2026-08-11</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>15:47:30</t>
+          <t>09:24:15</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2838,58 +2888,58 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>29552</v>
+        <v>25452</v>
       </c>
       <c r="L21" t="n">
-        <v>29552</v>
+        <v>25452</v>
       </c>
       <c r="M21" t="n">
-        <v>34752.35</v>
+        <v>30031.28</v>
       </c>
       <c r="N21" t="n">
-        <v>20851.41</v>
+        <v>18018.77</v>
       </c>
       <c r="O21" t="n">
-        <v>13900.94</v>
+        <v>12012.51</v>
       </c>
       <c r="P21" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q21" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R21" t="n">
-        <v>37.02</v>
+        <v>140.11</v>
       </c>
       <c r="S21" t="n">
-        <v>938.78</v>
+        <v>214.34</v>
       </c>
       <c r="T21" t="n">
-        <v>16.67</v>
+        <v>37.68</v>
       </c>
       <c r="U21" t="n">
-        <v>563.27</v>
+        <v>128.6</v>
       </c>
       <c r="V21" t="n">
-        <v>375.51</v>
+        <v>85.73</v>
       </c>
       <c r="W21" t="n">
-        <v>20.59</v>
+        <v>19.43</v>
       </c>
       <c r="X21" t="n">
-        <v>16.74</v>
+        <v>6.15</v>
       </c>
       <c r="Y21" t="n">
-        <v>37.02</v>
+        <v>140.11</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.129</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-08-10 14:18:40</t>
+          <t>2026-08-11 11:18:30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2899,7 +2949,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.157</t>
+          <t>Mouse session - Score: 0.074</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2909,7 +2959,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MOUSE_20260810_002</t>
+          <t>MOUSE_20260811_002</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2922,12 +2972,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-08-10</t>
+          <t>2026-08-11</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>14:18:40</t>
+          <t>11:18:30</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2936,58 +2986,58 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>16914</v>
+        <v>9488</v>
       </c>
       <c r="L22" t="n">
-        <v>16914</v>
+        <v>9488</v>
       </c>
       <c r="M22" t="n">
-        <v>26656.28</v>
+        <v>25205.51</v>
       </c>
       <c r="N22" t="n">
-        <v>15993.77</v>
+        <v>15123.31</v>
       </c>
       <c r="O22" t="n">
-        <v>10662.51</v>
+        <v>10082.21</v>
       </c>
       <c r="P22" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="Q22" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="R22" t="n">
-        <v>103.66</v>
+        <v>55.1</v>
       </c>
       <c r="S22" t="n">
-        <v>257.14</v>
+        <v>457.42</v>
       </c>
       <c r="T22" t="n">
-        <v>11.5</v>
+        <v>43.93</v>
       </c>
       <c r="U22" t="n">
-        <v>154.28</v>
+        <v>274.45</v>
       </c>
       <c r="V22" t="n">
-        <v>102.86</v>
+        <v>182.97</v>
       </c>
       <c r="W22" t="n">
-        <v>21.15</v>
+        <v>15.55</v>
       </c>
       <c r="X22" t="n">
-        <v>13.17</v>
+        <v>26.61</v>
       </c>
       <c r="Y22" t="n">
-        <v>103.66</v>
+        <v>55.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.157</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-08-11 17:19:21</t>
+          <t>2026-08-12 12:19:45</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2997,7 +3047,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.239</t>
+          <t>Mouse session - Score: 0.092</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3007,7 +3057,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MOUSE_20260811_000</t>
+          <t>MOUSE_20260812_000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -3020,12 +3070,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-08-11</t>
+          <t>2026-08-12</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>17:19:21</t>
+          <t>12:19:45</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3034,58 +3084,58 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>23012</v>
+        <v>18943</v>
       </c>
       <c r="L23" t="n">
-        <v>23012</v>
+        <v>18943</v>
       </c>
       <c r="M23" t="n">
-        <v>14383.24</v>
+        <v>35559.33</v>
       </c>
       <c r="N23" t="n">
-        <v>8629.940000000001</v>
+        <v>21335.6</v>
       </c>
       <c r="O23" t="n">
-        <v>5753.3</v>
+        <v>14223.73</v>
       </c>
       <c r="P23" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="Q23" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="R23" t="n">
-        <v>148.9</v>
+        <v>108.2</v>
       </c>
       <c r="S23" t="n">
-        <v>96.59999999999999</v>
+        <v>328.66</v>
       </c>
       <c r="T23" t="n">
-        <v>14.18</v>
+        <v>22.63</v>
       </c>
       <c r="U23" t="n">
-        <v>57.96</v>
+        <v>197.19</v>
       </c>
       <c r="V23" t="n">
-        <v>38.64</v>
+        <v>131.46</v>
       </c>
       <c r="W23" t="n">
-        <v>16.06</v>
+        <v>23.85</v>
       </c>
       <c r="X23" t="n">
-        <v>12.8</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="Y23" t="n">
-        <v>148.9</v>
+        <v>108.2</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.239</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-08-11 09:22:49</t>
+          <t>2026-08-12 11:54:47</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3095,7 +3145,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.216</t>
+          <t>Mouse session - Score: 0.124</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3105,7 +3155,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MOUSE_20260811_001</t>
+          <t>MOUSE_20260812_001</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3118,12 +3168,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-08-11</t>
+          <t>2026-08-12</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>09:22:49</t>
+          <t>11:54:47</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3132,58 +3182,58 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>18116</v>
+        <v>14849</v>
       </c>
       <c r="L24" t="n">
-        <v>18116</v>
+        <v>14849</v>
       </c>
       <c r="M24" t="n">
-        <v>16507.99</v>
+        <v>31332.98</v>
       </c>
       <c r="N24" t="n">
-        <v>9904.790000000001</v>
+        <v>18799.79</v>
       </c>
       <c r="O24" t="n">
-        <v>6603.2</v>
+        <v>12533.19</v>
       </c>
       <c r="P24" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="R24" t="n">
-        <v>169.07</v>
+        <v>98.92</v>
       </c>
       <c r="S24" t="n">
-        <v>97.64</v>
+        <v>316.75</v>
       </c>
       <c r="T24" t="n">
-        <v>43.75</v>
+        <v>23.75</v>
       </c>
       <c r="U24" t="n">
-        <v>58.58</v>
+        <v>190.05</v>
       </c>
       <c r="V24" t="n">
-        <v>39.06</v>
+        <v>126.7</v>
       </c>
       <c r="W24" t="n">
-        <v>19.39</v>
+        <v>20.35</v>
       </c>
       <c r="X24" t="n">
-        <v>8.25</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="Y24" t="n">
-        <v>169.07</v>
+        <v>98.92</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.216</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-08-11 09:59:11</t>
+          <t>2026-08-12 12:01:04</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3203,7 +3253,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MOUSE_20260811_002</t>
+          <t>MOUSE_20260812_002</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3216,12 +3266,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-08-11</t>
+          <t>2026-08-12</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>09:59:11</t>
+          <t>12:01:04</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3230,49 +3280,49 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>12936</v>
+        <v>25639</v>
       </c>
       <c r="L25" t="n">
-        <v>12936</v>
+        <v>25639</v>
       </c>
       <c r="M25" t="n">
-        <v>33173.33</v>
+        <v>22732.96</v>
       </c>
       <c r="N25" t="n">
-        <v>19904</v>
+        <v>13639.78</v>
       </c>
       <c r="O25" t="n">
-        <v>13269.33</v>
+        <v>9093.18</v>
       </c>
       <c r="P25" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="Q25" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="R25" t="n">
-        <v>32.34</v>
+        <v>158.9</v>
       </c>
       <c r="S25" t="n">
-        <v>1025.77</v>
+        <v>143.07</v>
       </c>
       <c r="T25" t="n">
-        <v>8.23</v>
+        <v>26.82</v>
       </c>
       <c r="U25" t="n">
-        <v>615.46</v>
+        <v>85.84</v>
       </c>
       <c r="V25" t="n">
-        <v>410.31</v>
+        <v>57.23</v>
       </c>
       <c r="W25" t="n">
-        <v>18.9</v>
+        <v>7.88</v>
       </c>
       <c r="X25" t="n">
-        <v>18.51</v>
+        <v>14.67</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.34</v>
+        <v>158.9</v>
       </c>
       <c r="Z25" t="n">
         <v>0.211</v>
@@ -3281,7 +3331,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-08-12 12:28:16</t>
+          <t>2026-08-13 10:32:10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3291,7 +3341,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.129</t>
+          <t>Mouse session - Score: 0.125</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3301,7 +3351,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MOUSE_20260812_000</t>
+          <t>MOUSE_20260813_000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3314,12 +3364,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-08-12</t>
+          <t>2026-08-13</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>12:28:16</t>
+          <t>10:32:10</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3328,58 +3378,58 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>18298</v>
+        <v>8189</v>
       </c>
       <c r="L26" t="n">
-        <v>18298</v>
+        <v>8189</v>
       </c>
       <c r="M26" t="n">
-        <v>9630.82</v>
+        <v>37234.69</v>
       </c>
       <c r="N26" t="n">
-        <v>5778.49</v>
+        <v>22340.81</v>
       </c>
       <c r="O26" t="n">
-        <v>3852.33</v>
+        <v>14893.87</v>
       </c>
       <c r="P26" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="Q26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R26" t="n">
-        <v>107.12</v>
+        <v>73.48</v>
       </c>
       <c r="S26" t="n">
-        <v>89.91</v>
+        <v>506.76</v>
       </c>
       <c r="T26" t="n">
-        <v>20.71</v>
+        <v>25.34</v>
       </c>
       <c r="U26" t="n">
-        <v>53.94</v>
+        <v>304.05</v>
       </c>
       <c r="V26" t="n">
-        <v>35.96</v>
+        <v>202.7</v>
       </c>
       <c r="W26" t="n">
-        <v>9.23</v>
+        <v>22.98</v>
       </c>
       <c r="X26" t="n">
-        <v>24.97</v>
+        <v>19.35</v>
       </c>
       <c r="Y26" t="n">
-        <v>107.12</v>
+        <v>73.48</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.129</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-08-12 14:05:11</t>
+          <t>2026-08-13 13:51:27</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3389,7 +3439,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.083</t>
+          <t>Mouse session - Score: 0.243</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3399,7 +3449,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MOUSE_20260812_001</t>
+          <t>MOUSE_20260813_001</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3412,12 +3462,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-08-12</t>
+          <t>2026-08-13</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>14:05:11</t>
+          <t>13:51:27</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3426,58 +3476,58 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>5129</v>
+        <v>8688</v>
       </c>
       <c r="L27" t="n">
-        <v>5129</v>
+        <v>8688</v>
       </c>
       <c r="M27" t="n">
-        <v>23694.45</v>
+        <v>37975.22</v>
       </c>
       <c r="N27" t="n">
-        <v>14216.67</v>
+        <v>22785.13</v>
       </c>
       <c r="O27" t="n">
-        <v>9477.780000000001</v>
+        <v>15190.09</v>
       </c>
       <c r="P27" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="R27" t="n">
-        <v>118.63</v>
+        <v>63.87</v>
       </c>
       <c r="S27" t="n">
-        <v>199.73</v>
+        <v>594.6</v>
       </c>
       <c r="T27" t="n">
-        <v>45</v>
+        <v>31.14</v>
       </c>
       <c r="U27" t="n">
-        <v>119.84</v>
+        <v>356.76</v>
       </c>
       <c r="V27" t="n">
-        <v>79.89</v>
+        <v>237.84</v>
       </c>
       <c r="W27" t="n">
-        <v>24.76</v>
+        <v>15.09</v>
       </c>
       <c r="X27" t="n">
-        <v>16.75</v>
+        <v>3.07</v>
       </c>
       <c r="Y27" t="n">
-        <v>118.63</v>
+        <v>63.87</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.083</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-08-12 17:22:30</t>
+          <t>2026-08-13 10:48:50</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3487,7 +3537,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.247</t>
+          <t>Mouse session - Score: 0.212</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3497,7 +3547,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MOUSE_20260812_002</t>
+          <t>MOUSE_20260813_002</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3510,12 +3560,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-08-12</t>
+          <t>2026-08-13</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>17:22:30</t>
+          <t>10:48:50</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3524,58 +3574,58 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>28821</v>
+        <v>25883</v>
       </c>
       <c r="L28" t="n">
-        <v>28821</v>
+        <v>25883</v>
       </c>
       <c r="M28" t="n">
-        <v>37528.02</v>
+        <v>24414.95</v>
       </c>
       <c r="N28" t="n">
-        <v>22516.81</v>
+        <v>14648.97</v>
       </c>
       <c r="O28" t="n">
-        <v>15011.21</v>
+        <v>9765.98</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="R28" t="n">
-        <v>77.05</v>
+        <v>144.99</v>
       </c>
       <c r="S28" t="n">
-        <v>487.06</v>
+        <v>168.38</v>
       </c>
       <c r="T28" t="n">
-        <v>28.85</v>
+        <v>35.53</v>
       </c>
       <c r="U28" t="n">
-        <v>292.23</v>
+        <v>101.03</v>
       </c>
       <c r="V28" t="n">
-        <v>194.82</v>
+        <v>67.34999999999999</v>
       </c>
       <c r="W28" t="n">
-        <v>22.32</v>
+        <v>28.31</v>
       </c>
       <c r="X28" t="n">
-        <v>6.48</v>
+        <v>3.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>77.05</v>
+        <v>144.99</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.247</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-08-13 10:30:04</t>
+          <t>2026-08-14 16:32:11</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3585,7 +3635,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.095</t>
+          <t>Mouse session - Score: 0.207</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3595,7 +3645,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MOUSE_20260813_000</t>
+          <t>MOUSE_20260814_000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3608,12 +3658,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-08-13</t>
+          <t>2026-08-14</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>10:30:04</t>
+          <t>16:32:11</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3622,58 +3672,58 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>16718</v>
+        <v>8639</v>
       </c>
       <c r="L29" t="n">
-        <v>16718</v>
+        <v>8639</v>
       </c>
       <c r="M29" t="n">
-        <v>13191.93</v>
+        <v>33036.38</v>
       </c>
       <c r="N29" t="n">
-        <v>7915.16</v>
+        <v>19821.83</v>
       </c>
       <c r="O29" t="n">
-        <v>5276.77</v>
+        <v>13214.55</v>
       </c>
       <c r="P29" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q29" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="R29" t="n">
-        <v>139.91</v>
+        <v>137.56</v>
       </c>
       <c r="S29" t="n">
-        <v>94.29000000000001</v>
+        <v>240.16</v>
       </c>
       <c r="T29" t="n">
-        <v>25.51</v>
+        <v>24.55</v>
       </c>
       <c r="U29" t="n">
-        <v>56.57</v>
+        <v>144.09</v>
       </c>
       <c r="V29" t="n">
-        <v>37.72</v>
+        <v>96.06</v>
       </c>
       <c r="W29" t="n">
-        <v>8.43</v>
+        <v>14.18</v>
       </c>
       <c r="X29" t="n">
-        <v>19.38</v>
+        <v>7.46</v>
       </c>
       <c r="Y29" t="n">
-        <v>139.91</v>
+        <v>137.56</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.095</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-08-13 14:04:46</t>
+          <t>2026-08-14 15:52:20</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3683,7 +3733,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.163</t>
+          <t>Mouse session - Score: 0.923</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3693,25 +3743,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MOUSE_20260813_001</t>
+          <t>MOUSE_20260814_001</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-08-13</t>
+          <t>2026-08-14</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>14:04:46</t>
+          <t>15:52:20</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3720,58 +3770,58 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>9324</v>
+        <v>8742</v>
       </c>
       <c r="L30" t="n">
-        <v>9324</v>
+        <v>8742</v>
       </c>
       <c r="M30" t="n">
-        <v>6575.7</v>
+        <v>38608</v>
       </c>
       <c r="N30" t="n">
-        <v>3945.42</v>
+        <v>23164.8</v>
       </c>
       <c r="O30" t="n">
-        <v>2630.28</v>
+        <v>15443.2</v>
       </c>
       <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
         <v>12</v>
       </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
       <c r="R30" t="n">
-        <v>59.93</v>
+        <v>103.99</v>
       </c>
       <c r="S30" t="n">
-        <v>109.72</v>
+        <v>371.27</v>
       </c>
       <c r="T30" t="n">
-        <v>15.78</v>
+        <v>41.37</v>
       </c>
       <c r="U30" t="n">
-        <v>65.83</v>
+        <v>222.76</v>
       </c>
       <c r="V30" t="n">
-        <v>43.89</v>
+        <v>148.51</v>
       </c>
       <c r="W30" t="n">
-        <v>20.63</v>
+        <v>17.43</v>
       </c>
       <c r="X30" t="n">
-        <v>14.48</v>
+        <v>2.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>59.93</v>
+        <v>103.99</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.163</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-08-13 17:55:46</t>
+          <t>2026-08-14 11:55:49</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3781,7 +3831,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.899</t>
+          <t>Mouse session - Score: 0.158</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3791,25 +3841,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MOUSE_20260813_002</t>
+          <t>MOUSE_20260814_002</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-08-13</t>
+          <t>2026-08-14</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>17:55:46</t>
+          <t>11:55:49</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3818,58 +3868,58 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>5067</v>
+        <v>9195</v>
       </c>
       <c r="L31" t="n">
-        <v>5067</v>
+        <v>9195</v>
       </c>
       <c r="M31" t="n">
-        <v>15988.72</v>
+        <v>27744.44</v>
       </c>
       <c r="N31" t="n">
-        <v>9593.23</v>
+        <v>16646.67</v>
       </c>
       <c r="O31" t="n">
-        <v>6395.49</v>
+        <v>11097.78</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q31" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="R31" t="n">
-        <v>57.28</v>
+        <v>149.07</v>
       </c>
       <c r="S31" t="n">
-        <v>279.11</v>
+        <v>186.11</v>
       </c>
       <c r="T31" t="n">
-        <v>13.98</v>
+        <v>15.66</v>
       </c>
       <c r="U31" t="n">
-        <v>167.47</v>
+        <v>111.67</v>
       </c>
       <c r="V31" t="n">
-        <v>111.65</v>
+        <v>74.45</v>
       </c>
       <c r="W31" t="n">
-        <v>6.78</v>
+        <v>13.11</v>
       </c>
       <c r="X31" t="n">
-        <v>9.630000000000001</v>
+        <v>20.73</v>
       </c>
       <c r="Y31" t="n">
-        <v>57.28</v>
+        <v>149.07</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.899</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-08-14 16:25:42</t>
+          <t>2026-08-16 13:02:54</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3879,7 +3929,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.167</t>
+          <t>Mouse session - Score: 0.054</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3889,7 +3939,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MOUSE_20260814_000</t>
+          <t>MOUSE_20260816_000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3902,12 +3952,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-08-14</t>
+          <t>2026-08-16</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>16:25:42</t>
+          <t>13:02:54</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3916,58 +3966,58 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>6026</v>
+        <v>29655</v>
       </c>
       <c r="L32" t="n">
-        <v>6026</v>
+        <v>29655</v>
       </c>
       <c r="M32" t="n">
-        <v>19981.29</v>
+        <v>11641.52</v>
       </c>
       <c r="N32" t="n">
-        <v>11988.77</v>
+        <v>6984.91</v>
       </c>
       <c r="O32" t="n">
-        <v>7992.52</v>
+        <v>4656.61</v>
       </c>
       <c r="P32" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q32" t="n">
         <v>16</v>
       </c>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
       <c r="R32" t="n">
-        <v>131.31</v>
+        <v>176.71</v>
       </c>
       <c r="S32" t="n">
-        <v>152.17</v>
+        <v>65.88</v>
       </c>
       <c r="T32" t="n">
-        <v>24.86</v>
+        <v>45.34</v>
       </c>
       <c r="U32" t="n">
-        <v>91.3</v>
+        <v>39.53</v>
       </c>
       <c r="V32" t="n">
-        <v>60.87</v>
+        <v>26.35</v>
       </c>
       <c r="W32" t="n">
-        <v>18.02</v>
+        <v>14.48</v>
       </c>
       <c r="X32" t="n">
-        <v>14.49</v>
+        <v>27.03</v>
       </c>
       <c r="Y32" t="n">
-        <v>131.31</v>
+        <v>176.71</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.167</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-08-14 17:32:02</t>
+          <t>2026-08-16 11:05:13</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3977,7 +4027,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.170</t>
+          <t>Mouse session - Score: 0.213</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3987,7 +4037,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MOUSE_20260814_001</t>
+          <t>MOUSE_20260816_001</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -4000,12 +4050,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-08-14</t>
+          <t>2026-08-16</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>17:32:02</t>
+          <t>11:05:13</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4014,58 +4064,58 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>14845</v>
+        <v>5539</v>
       </c>
       <c r="L33" t="n">
-        <v>14845</v>
+        <v>5539</v>
       </c>
       <c r="M33" t="n">
-        <v>25759.97</v>
+        <v>39799.52</v>
       </c>
       <c r="N33" t="n">
-        <v>15455.98</v>
+        <v>23879.71</v>
       </c>
       <c r="O33" t="n">
-        <v>10303.99</v>
+        <v>15919.81</v>
       </c>
       <c r="P33" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="Q33" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="R33" t="n">
-        <v>172.3</v>
+        <v>33.24</v>
       </c>
       <c r="S33" t="n">
-        <v>149.51</v>
+        <v>1197.5</v>
       </c>
       <c r="T33" t="n">
-        <v>35.66</v>
+        <v>32.45</v>
       </c>
       <c r="U33" t="n">
-        <v>89.7</v>
+        <v>718.5</v>
       </c>
       <c r="V33" t="n">
-        <v>59.8</v>
+        <v>479</v>
       </c>
       <c r="W33" t="n">
-        <v>24.27</v>
+        <v>4.06</v>
       </c>
       <c r="X33" t="n">
-        <v>20.81</v>
+        <v>16.86</v>
       </c>
       <c r="Y33" t="n">
-        <v>172.3</v>
+        <v>33.24</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.17</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-08-14 09:23:35</t>
+          <t>2026-08-16 09:19:08</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4075,7 +4125,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.074</t>
+          <t>Mouse session - Score: 0.144</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4085,7 +4135,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MOUSE_20260814_002</t>
+          <t>MOUSE_20260816_002</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -4098,12 +4148,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-08-14</t>
+          <t>2026-08-16</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>09:23:35</t>
+          <t>09:19:08</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4112,58 +4162,58 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>10385</v>
+        <v>22421</v>
       </c>
       <c r="L34" t="n">
-        <v>10385</v>
+        <v>22421</v>
       </c>
       <c r="M34" t="n">
-        <v>25182.14</v>
+        <v>23679.98</v>
       </c>
       <c r="N34" t="n">
-        <v>15109.28</v>
+        <v>14207.99</v>
       </c>
       <c r="O34" t="n">
-        <v>10072.86</v>
+        <v>9471.99</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="Q34" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R34" t="n">
-        <v>84.79000000000001</v>
+        <v>78.28</v>
       </c>
       <c r="S34" t="n">
-        <v>297</v>
+        <v>302.5</v>
       </c>
       <c r="T34" t="n">
-        <v>25.31</v>
+        <v>42.57</v>
       </c>
       <c r="U34" t="n">
-        <v>178.2</v>
+        <v>181.5</v>
       </c>
       <c r="V34" t="n">
-        <v>118.8</v>
+        <v>121</v>
       </c>
       <c r="W34" t="n">
-        <v>29.67</v>
+        <v>9.6</v>
       </c>
       <c r="X34" t="n">
-        <v>5.4</v>
+        <v>4.26</v>
       </c>
       <c r="Y34" t="n">
-        <v>84.79000000000001</v>
+        <v>78.28</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.074</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-08-17 17:33:25</t>
+          <t>2026-08-17 17:03:59</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4173,7 +4223,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.096</t>
+          <t>Mouse session - Score: 0.184</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -4201,7 +4251,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>17:33:25</t>
+          <t>17:03:59</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4210,58 +4260,58 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>26936</v>
+        <v>9633</v>
       </c>
       <c r="L35" t="n">
-        <v>26936</v>
+        <v>9633</v>
       </c>
       <c r="M35" t="n">
-        <v>31584.45</v>
+        <v>10393.62</v>
       </c>
       <c r="N35" t="n">
-        <v>18950.67</v>
+        <v>6236.17</v>
       </c>
       <c r="O35" t="n">
-        <v>12633.78</v>
+        <v>4157.45</v>
       </c>
       <c r="P35" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q35" t="n">
         <v>9</v>
       </c>
-      <c r="Q35" t="n">
-        <v>17</v>
-      </c>
       <c r="R35" t="n">
-        <v>165.74</v>
+        <v>61.83</v>
       </c>
       <c r="S35" t="n">
-        <v>190.57</v>
+        <v>168.1</v>
       </c>
       <c r="T35" t="n">
-        <v>47.76</v>
+        <v>32.15</v>
       </c>
       <c r="U35" t="n">
-        <v>114.34</v>
+        <v>100.86</v>
       </c>
       <c r="V35" t="n">
-        <v>76.23</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="W35" t="n">
-        <v>27.43</v>
+        <v>19.72</v>
       </c>
       <c r="X35" t="n">
-        <v>18.22</v>
+        <v>28.91</v>
       </c>
       <c r="Y35" t="n">
-        <v>165.74</v>
+        <v>61.83</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.096</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-08-17 09:57:33</t>
+          <t>2026-08-17 14:07:33</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4271,7 +4321,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.107</t>
+          <t>Mouse session - Score: 0.144</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -4299,7 +4349,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>09:57:33</t>
+          <t>14:07:33</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4308,58 +4358,58 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>25124</v>
+        <v>27516</v>
       </c>
       <c r="L36" t="n">
-        <v>25124</v>
+        <v>27516</v>
       </c>
       <c r="M36" t="n">
-        <v>21267.91</v>
+        <v>29813.71</v>
       </c>
       <c r="N36" t="n">
-        <v>12760.74</v>
+        <v>17888.22</v>
       </c>
       <c r="O36" t="n">
-        <v>8507.16</v>
+        <v>11925.48</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Q36" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R36" t="n">
-        <v>125.08</v>
+        <v>74.51000000000001</v>
       </c>
       <c r="S36" t="n">
-        <v>170.03</v>
+        <v>400.12</v>
       </c>
       <c r="T36" t="n">
-        <v>26.9</v>
+        <v>29.78</v>
       </c>
       <c r="U36" t="n">
-        <v>102.02</v>
+        <v>240.07</v>
       </c>
       <c r="V36" t="n">
-        <v>68.01000000000001</v>
+        <v>160.05</v>
       </c>
       <c r="W36" t="n">
-        <v>29.29</v>
+        <v>3.66</v>
       </c>
       <c r="X36" t="n">
-        <v>5.87</v>
+        <v>16.16</v>
       </c>
       <c r="Y36" t="n">
-        <v>125.08</v>
+        <v>74.51000000000001</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.107</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-08-17 12:33:42</t>
+          <t>2026-08-17 13:59:32</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4369,7 +4419,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.181</t>
+          <t>Mouse session - Score: 0.916</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -4384,80 +4434,80 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2026-08-17</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>13:59:32</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>22871</v>
+      </c>
+      <c r="L37" t="n">
+        <v>22871</v>
+      </c>
+      <c r="M37" t="n">
+        <v>28131.74</v>
+      </c>
+      <c r="N37" t="n">
+        <v>16879.05</v>
+      </c>
+      <c r="O37" t="n">
+        <v>11252.7</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
         <v>0</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2026-08-17</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>12:33:42</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>27302</v>
-      </c>
-      <c r="L37" t="n">
-        <v>27302</v>
-      </c>
-      <c r="M37" t="n">
-        <v>6998.17</v>
-      </c>
-      <c r="N37" t="n">
-        <v>4198.9</v>
-      </c>
-      <c r="O37" t="n">
-        <v>2799.27</v>
-      </c>
-      <c r="P37" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>29</v>
-      </c>
       <c r="R37" t="n">
-        <v>86</v>
+        <v>45.39</v>
       </c>
       <c r="S37" t="n">
-        <v>81.38</v>
+        <v>619.8200000000001</v>
       </c>
       <c r="T37" t="n">
-        <v>16.1</v>
+        <v>31.22</v>
       </c>
       <c r="U37" t="n">
-        <v>48.83</v>
+        <v>371.89</v>
       </c>
       <c r="V37" t="n">
-        <v>32.55</v>
+        <v>247.93</v>
       </c>
       <c r="W37" t="n">
-        <v>13.7</v>
+        <v>13.17</v>
       </c>
       <c r="X37" t="n">
-        <v>17.72</v>
+        <v>24.29</v>
       </c>
       <c r="Y37" t="n">
-        <v>86</v>
+        <v>45.39</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.181</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-08-18 13:31:13</t>
+          <t>2026-08-18 16:53:45</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4467,7 +4517,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.245</t>
+          <t>Mouse session - Score: 0.088</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4495,7 +4545,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>13:31:13</t>
+          <t>16:53:45</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -4504,58 +4554,58 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>25443</v>
+        <v>17471</v>
       </c>
       <c r="L38" t="n">
-        <v>25443</v>
+        <v>17471</v>
       </c>
       <c r="M38" t="n">
-        <v>25019.74</v>
+        <v>14710.09</v>
       </c>
       <c r="N38" t="n">
-        <v>15011.84</v>
+        <v>8826.049999999999</v>
       </c>
       <c r="O38" t="n">
-        <v>10007.89</v>
+        <v>5884.04</v>
       </c>
       <c r="P38" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R38" t="n">
-        <v>144.92</v>
+        <v>165.08</v>
       </c>
       <c r="S38" t="n">
-        <v>172.65</v>
+        <v>89.11</v>
       </c>
       <c r="T38" t="n">
-        <v>43.51</v>
+        <v>23.68</v>
       </c>
       <c r="U38" t="n">
-        <v>103.59</v>
+        <v>53.46</v>
       </c>
       <c r="V38" t="n">
-        <v>69.06</v>
+        <v>35.64</v>
       </c>
       <c r="W38" t="n">
-        <v>2.78</v>
+        <v>20.15</v>
       </c>
       <c r="X38" t="n">
-        <v>9.449999999999999</v>
+        <v>14.81</v>
       </c>
       <c r="Y38" t="n">
-        <v>144.92</v>
+        <v>165.08</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.245</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-08-18 14:05:19</t>
+          <t>2026-08-18 17:21:30</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4565,7 +4615,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.184</t>
+          <t>Mouse session - Score: 0.186</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -4593,7 +4643,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>14:05:19</t>
+          <t>17:21:30</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -4602,58 +4652,58 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>19982</v>
+        <v>12978</v>
       </c>
       <c r="L39" t="n">
-        <v>19982</v>
+        <v>12978</v>
       </c>
       <c r="M39" t="n">
-        <v>12273.5</v>
+        <v>32672.48</v>
       </c>
       <c r="N39" t="n">
-        <v>7364.1</v>
+        <v>19603.49</v>
       </c>
       <c r="O39" t="n">
-        <v>4909.4</v>
+        <v>13068.99</v>
       </c>
       <c r="P39" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="Q39" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="R39" t="n">
-        <v>146.03</v>
+        <v>153.15</v>
       </c>
       <c r="S39" t="n">
-        <v>84.05</v>
+        <v>213.33</v>
       </c>
       <c r="T39" t="n">
-        <v>13.92</v>
+        <v>11.77</v>
       </c>
       <c r="U39" t="n">
-        <v>50.43</v>
+        <v>128</v>
       </c>
       <c r="V39" t="n">
-        <v>33.62</v>
+        <v>85.33</v>
       </c>
       <c r="W39" t="n">
-        <v>8.039999999999999</v>
+        <v>10.66</v>
       </c>
       <c r="X39" t="n">
-        <v>11.05</v>
+        <v>6.96</v>
       </c>
       <c r="Y39" t="n">
-        <v>146.03</v>
+        <v>153.15</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.184</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026-08-18 12:02:08</t>
+          <t>2026-08-18 16:34:51</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4663,7 +4713,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.131</t>
+          <t>Mouse session - Score: 0.213</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4691,7 +4741,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>12:02:08</t>
+          <t>16:34:51</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -4700,58 +4750,58 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>7245</v>
+        <v>23939</v>
       </c>
       <c r="L40" t="n">
-        <v>7245</v>
+        <v>23939</v>
       </c>
       <c r="M40" t="n">
-        <v>7786.75</v>
+        <v>25163.73</v>
       </c>
       <c r="N40" t="n">
-        <v>4672.05</v>
+        <v>15098.24</v>
       </c>
       <c r="O40" t="n">
-        <v>3114.7</v>
+        <v>10065.49</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="R40" t="n">
-        <v>124.13</v>
+        <v>160.46</v>
       </c>
       <c r="S40" t="n">
+        <v>156.82</v>
+      </c>
+      <c r="T40" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="U40" t="n">
+        <v>94.09</v>
+      </c>
+      <c r="V40" t="n">
         <v>62.73</v>
       </c>
-      <c r="T40" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="U40" t="n">
-        <v>37.64</v>
-      </c>
-      <c r="V40" t="n">
-        <v>25.09</v>
-      </c>
       <c r="W40" t="n">
-        <v>11.25</v>
+        <v>26.86</v>
       </c>
       <c r="X40" t="n">
-        <v>17.16</v>
+        <v>22.93</v>
       </c>
       <c r="Y40" t="n">
-        <v>124.13</v>
+        <v>160.46</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.131</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-08-19 09:15:54</t>
+          <t>2026-08-19 09:21:59</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4761,7 +4811,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.163</t>
+          <t>Mouse session - Score: 0.186</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4789,7 +4839,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>09:15:54</t>
+          <t>09:21:59</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -4798,58 +4848,58 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>14304</v>
+        <v>20985</v>
       </c>
       <c r="L41" t="n">
-        <v>14304</v>
+        <v>20985</v>
       </c>
       <c r="M41" t="n">
-        <v>24508.32</v>
+        <v>20124.33</v>
       </c>
       <c r="N41" t="n">
-        <v>14704.99</v>
+        <v>12074.6</v>
       </c>
       <c r="O41" t="n">
-        <v>9803.33</v>
+        <v>8049.73</v>
       </c>
       <c r="P41" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="Q41" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="R41" t="n">
-        <v>105.24</v>
+        <v>143.51</v>
       </c>
       <c r="S41" t="n">
-        <v>232.87</v>
+        <v>140.23</v>
       </c>
       <c r="T41" t="n">
-        <v>12.89</v>
+        <v>16.81</v>
       </c>
       <c r="U41" t="n">
-        <v>139.72</v>
+        <v>84.14</v>
       </c>
       <c r="V41" t="n">
-        <v>93.15000000000001</v>
+        <v>56.09</v>
       </c>
       <c r="W41" t="n">
-        <v>29.47</v>
+        <v>27.91</v>
       </c>
       <c r="X41" t="n">
-        <v>4.53</v>
+        <v>4.8</v>
       </c>
       <c r="Y41" t="n">
-        <v>105.24</v>
+        <v>143.51</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.163</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-08-19 10:29:02</t>
+          <t>2026-08-19 09:02:38</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4859,7 +4909,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.116</t>
+          <t>Mouse session - Score: 0.146</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -4887,7 +4937,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>10:29:02</t>
+          <t>09:02:38</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -4896,58 +4946,58 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>13525</v>
+        <v>12906</v>
       </c>
       <c r="L42" t="n">
-        <v>13525</v>
+        <v>12906</v>
       </c>
       <c r="M42" t="n">
-        <v>19637.94</v>
+        <v>36659.29</v>
       </c>
       <c r="N42" t="n">
-        <v>11782.77</v>
+        <v>21995.57</v>
       </c>
       <c r="O42" t="n">
-        <v>7855.18</v>
+        <v>14663.71</v>
       </c>
       <c r="P42" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Q42" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R42" t="n">
-        <v>177.38</v>
+        <v>152.86</v>
       </c>
       <c r="S42" t="n">
-        <v>110.71</v>
+        <v>239.82</v>
       </c>
       <c r="T42" t="n">
-        <v>31.01</v>
+        <v>37.7</v>
       </c>
       <c r="U42" t="n">
-        <v>66.43000000000001</v>
+        <v>143.89</v>
       </c>
       <c r="V42" t="n">
-        <v>44.29</v>
+        <v>95.93000000000001</v>
       </c>
       <c r="W42" t="n">
-        <v>13.75</v>
+        <v>29.74</v>
       </c>
       <c r="X42" t="n">
-        <v>20.56</v>
+        <v>18.27</v>
       </c>
       <c r="Y42" t="n">
-        <v>177.38</v>
+        <v>152.86</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.116</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-08-19 17:22:13</t>
+          <t>2026-08-19 11:47:49</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4957,7 +5007,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.076</t>
+          <t>Mouse session - Score: 0.138</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -4985,7 +5035,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>17:22:13</t>
+          <t>11:47:49</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -4994,58 +5044,58 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>19455</v>
+        <v>6334</v>
       </c>
       <c r="L43" t="n">
-        <v>19455</v>
+        <v>6334</v>
       </c>
       <c r="M43" t="n">
-        <v>6074.66</v>
+        <v>37128.52</v>
       </c>
       <c r="N43" t="n">
-        <v>3644.8</v>
+        <v>22277.11</v>
       </c>
       <c r="O43" t="n">
-        <v>2429.87</v>
+        <v>14851.41</v>
       </c>
       <c r="P43" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="Q43" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="R43" t="n">
-        <v>102.46</v>
+        <v>176.63</v>
       </c>
       <c r="S43" t="n">
-        <v>59.29</v>
+        <v>210.21</v>
       </c>
       <c r="T43" t="n">
-        <v>13.81</v>
+        <v>33.05</v>
       </c>
       <c r="U43" t="n">
-        <v>35.57</v>
+        <v>126.13</v>
       </c>
       <c r="V43" t="n">
-        <v>23.71</v>
+        <v>84.08</v>
       </c>
       <c r="W43" t="n">
-        <v>13.49</v>
+        <v>16.73</v>
       </c>
       <c r="X43" t="n">
-        <v>12.79</v>
+        <v>13.1</v>
       </c>
       <c r="Y43" t="n">
-        <v>102.46</v>
+        <v>176.63</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.076</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-08-20 12:14:11</t>
+          <t>2026-08-20 10:47:14</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5055,7 +5105,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.167</t>
+          <t>Mouse session - Score: 0.152</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -5083,7 +5133,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>12:14:11</t>
+          <t>10:47:14</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5092,58 +5142,58 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>27955</v>
+        <v>15844</v>
       </c>
       <c r="L44" t="n">
-        <v>27955</v>
+        <v>15844</v>
       </c>
       <c r="M44" t="n">
-        <v>23379.91</v>
+        <v>12161.67</v>
       </c>
       <c r="N44" t="n">
-        <v>14027.95</v>
+        <v>7297</v>
       </c>
       <c r="O44" t="n">
-        <v>9351.959999999999</v>
+        <v>4864.67</v>
       </c>
       <c r="P44" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="Q44" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="R44" t="n">
-        <v>78.14</v>
+        <v>114.56</v>
       </c>
       <c r="S44" t="n">
-        <v>299.22</v>
+        <v>106.16</v>
       </c>
       <c r="T44" t="n">
-        <v>18.16</v>
+        <v>27.14</v>
       </c>
       <c r="U44" t="n">
-        <v>179.53</v>
+        <v>63.69</v>
       </c>
       <c r="V44" t="n">
-        <v>119.69</v>
+        <v>42.46</v>
       </c>
       <c r="W44" t="n">
-        <v>20.89</v>
+        <v>6.61</v>
       </c>
       <c r="X44" t="n">
-        <v>6.65</v>
+        <v>20.07</v>
       </c>
       <c r="Y44" t="n">
-        <v>78.14</v>
+        <v>114.56</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.167</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-08-20 11:16:58</t>
+          <t>2026-08-20 17:51:11</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5153,7 +5203,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.085</t>
+          <t>Mouse session - Score: 0.244</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -5181,7 +5231,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>11:16:58</t>
+          <t>17:51:11</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -5190,58 +5240,58 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>15749</v>
+        <v>21941</v>
       </c>
       <c r="L45" t="n">
-        <v>15749</v>
+        <v>21941</v>
       </c>
       <c r="M45" t="n">
-        <v>37976.48</v>
+        <v>18991.35</v>
       </c>
       <c r="N45" t="n">
-        <v>22785.89</v>
+        <v>11394.81</v>
       </c>
       <c r="O45" t="n">
-        <v>15190.59</v>
+        <v>7596.54</v>
       </c>
       <c r="P45" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="Q45" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="R45" t="n">
-        <v>39.76</v>
+        <v>143.54</v>
       </c>
       <c r="S45" t="n">
-        <v>955.1799999999999</v>
+        <v>132.31</v>
       </c>
       <c r="T45" t="n">
-        <v>29.51</v>
+        <v>48.25</v>
       </c>
       <c r="U45" t="n">
-        <v>573.11</v>
+        <v>79.39</v>
       </c>
       <c r="V45" t="n">
-        <v>382.07</v>
+        <v>52.92</v>
       </c>
       <c r="W45" t="n">
-        <v>14.72</v>
+        <v>24.2</v>
       </c>
       <c r="X45" t="n">
-        <v>21.24</v>
+        <v>23.55</v>
       </c>
       <c r="Y45" t="n">
-        <v>39.76</v>
+        <v>143.54</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-08-20 17:13:09</t>
+          <t>2026-08-20 09:10:51</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5251,7 +5301,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.219</t>
+          <t>Mouse session - Score: 0.170</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -5279,7 +5329,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>17:13:09</t>
+          <t>09:10:51</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -5288,58 +5338,58 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>17830</v>
+        <v>7985</v>
       </c>
       <c r="L46" t="n">
-        <v>17830</v>
+        <v>7985</v>
       </c>
       <c r="M46" t="n">
-        <v>5244.19</v>
+        <v>27199.33</v>
       </c>
       <c r="N46" t="n">
-        <v>3146.52</v>
+        <v>16319.6</v>
       </c>
       <c r="O46" t="n">
-        <v>2097.68</v>
+        <v>10879.73</v>
       </c>
       <c r="P46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q46" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R46" t="n">
-        <v>109.33</v>
+        <v>135.17</v>
       </c>
       <c r="S46" t="n">
-        <v>47.97</v>
+        <v>201.23</v>
       </c>
       <c r="T46" t="n">
-        <v>43.27</v>
+        <v>19.03</v>
       </c>
       <c r="U46" t="n">
-        <v>28.78</v>
+        <v>120.74</v>
       </c>
       <c r="V46" t="n">
-        <v>19.19</v>
+        <v>80.48999999999999</v>
       </c>
       <c r="W46" t="n">
-        <v>16.72</v>
+        <v>20.17</v>
       </c>
       <c r="X46" t="n">
-        <v>14.46</v>
+        <v>24.49</v>
       </c>
       <c r="Y46" t="n">
-        <v>109.33</v>
+        <v>135.17</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.219</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2026-08-21 14:12:11</t>
+          <t>2026-08-21 15:58:38</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5349,7 +5399,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.181</t>
+          <t>Mouse session - Score: 0.216</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -5377,7 +5427,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>14:12:11</t>
+          <t>15:58:38</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -5386,58 +5436,58 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>16067</v>
+        <v>21195</v>
       </c>
       <c r="L47" t="n">
-        <v>16067</v>
+        <v>21195</v>
       </c>
       <c r="M47" t="n">
-        <v>18434.23</v>
+        <v>38707.73</v>
       </c>
       <c r="N47" t="n">
-        <v>11060.54</v>
+        <v>23224.64</v>
       </c>
       <c r="O47" t="n">
-        <v>7373.69</v>
+        <v>15483.09</v>
       </c>
       <c r="P47" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="Q47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R47" t="n">
-        <v>76.67</v>
+        <v>147.56</v>
       </c>
       <c r="S47" t="n">
-        <v>240.43</v>
+        <v>262.33</v>
       </c>
       <c r="T47" t="n">
-        <v>13.52</v>
+        <v>17.9</v>
       </c>
       <c r="U47" t="n">
-        <v>144.26</v>
+        <v>157.4</v>
       </c>
       <c r="V47" t="n">
-        <v>96.17</v>
+        <v>104.93</v>
       </c>
       <c r="W47" t="n">
-        <v>20.52</v>
+        <v>28.2</v>
       </c>
       <c r="X47" t="n">
-        <v>20.61</v>
+        <v>25.38</v>
       </c>
       <c r="Y47" t="n">
-        <v>76.67</v>
+        <v>147.56</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.181</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2026-08-21 09:32:39</t>
+          <t>2026-08-21 15:18:24</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5447,7 +5497,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.247</t>
+          <t>Mouse session - Score: 0.218</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -5475,7 +5525,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>09:32:39</t>
+          <t>15:18:24</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -5484,58 +5534,58 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>25872</v>
+        <v>19046</v>
       </c>
       <c r="L48" t="n">
-        <v>25872</v>
+        <v>19046</v>
       </c>
       <c r="M48" t="n">
-        <v>31088.24</v>
+        <v>19136.44</v>
       </c>
       <c r="N48" t="n">
-        <v>18652.95</v>
+        <v>11481.86</v>
       </c>
       <c r="O48" t="n">
-        <v>12435.3</v>
+        <v>7654.58</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q48" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="R48" t="n">
-        <v>100.23</v>
+        <v>138.06</v>
       </c>
       <c r="S48" t="n">
-        <v>310.18</v>
+        <v>138.61</v>
       </c>
       <c r="T48" t="n">
-        <v>39.41</v>
+        <v>16.98</v>
       </c>
       <c r="U48" t="n">
-        <v>186.11</v>
+        <v>83.17</v>
       </c>
       <c r="V48" t="n">
-        <v>124.07</v>
+        <v>55.44</v>
       </c>
       <c r="W48" t="n">
-        <v>17.78</v>
+        <v>14.99</v>
       </c>
       <c r="X48" t="n">
-        <v>3.29</v>
+        <v>23.49</v>
       </c>
       <c r="Y48" t="n">
-        <v>100.23</v>
+        <v>138.06</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.247</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2026-08-21 14:01:29</t>
+          <t>2026-08-21 10:14:26</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5545,7 +5595,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.064</t>
+          <t>Mouse session - Score: 0.817</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -5560,11 +5610,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -5573,7 +5623,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>14:01:29</t>
+          <t>10:14:26</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -5582,58 +5632,58 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>20081</v>
+        <v>5655</v>
       </c>
       <c r="L49" t="n">
-        <v>20081</v>
+        <v>5655</v>
       </c>
       <c r="M49" t="n">
-        <v>21494.21</v>
+        <v>33722.22</v>
       </c>
       <c r="N49" t="n">
-        <v>12896.53</v>
+        <v>20233.33</v>
       </c>
       <c r="O49" t="n">
-        <v>8597.68</v>
+        <v>13488.89</v>
       </c>
       <c r="P49" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="Q49" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="R49" t="n">
-        <v>53.83</v>
+        <v>86.98</v>
       </c>
       <c r="S49" t="n">
-        <v>399.31</v>
+        <v>387.72</v>
       </c>
       <c r="T49" t="n">
-        <v>22.45</v>
+        <v>35.38</v>
       </c>
       <c r="U49" t="n">
-        <v>239.59</v>
+        <v>232.63</v>
       </c>
       <c r="V49" t="n">
-        <v>159.73</v>
+        <v>155.09</v>
       </c>
       <c r="W49" t="n">
-        <v>22.53</v>
+        <v>20.08</v>
       </c>
       <c r="X49" t="n">
-        <v>10.35</v>
+        <v>6.69</v>
       </c>
       <c r="Y49" t="n">
-        <v>53.83</v>
+        <v>86.98</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.064</v>
+        <v>0.8169999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026-08-23 15:09:37</t>
+          <t>2026-08-24 16:18:56</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5643,7 +5693,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.222</t>
+          <t>Mouse session - Score: 0.147</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -5653,7 +5703,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MOUSE_20260823_000</t>
+          <t>MOUSE_20260824_000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5666,12 +5716,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-08-23</t>
+          <t>2026-08-24</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>15:09:37</t>
+          <t>16:18:56</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -5680,58 +5730,58 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>15801</v>
+        <v>18739</v>
       </c>
       <c r="L50" t="n">
-        <v>15801</v>
+        <v>18739</v>
       </c>
       <c r="M50" t="n">
-        <v>35696.02</v>
+        <v>12949.03</v>
       </c>
       <c r="N50" t="n">
-        <v>21417.61</v>
+        <v>7769.42</v>
       </c>
       <c r="O50" t="n">
-        <v>14278.41</v>
+        <v>5179.61</v>
       </c>
       <c r="P50" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q50" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="R50" t="n">
-        <v>51.87</v>
+        <v>173.59</v>
       </c>
       <c r="S50" t="n">
-        <v>688.24</v>
+        <v>74.59</v>
       </c>
       <c r="T50" t="n">
-        <v>38.42</v>
+        <v>23.62</v>
       </c>
       <c r="U50" t="n">
-        <v>412.94</v>
+        <v>44.76</v>
       </c>
       <c r="V50" t="n">
-        <v>275.29</v>
+        <v>29.84</v>
       </c>
       <c r="W50" t="n">
-        <v>7.69</v>
+        <v>11.73</v>
       </c>
       <c r="X50" t="n">
-        <v>6.05</v>
+        <v>17.85</v>
       </c>
       <c r="Y50" t="n">
-        <v>51.87</v>
+        <v>173.59</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.222</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2026-08-23 17:54:44</t>
+          <t>2026-08-24 10:20:31</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5741,7 +5791,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.082</t>
+          <t>Mouse session - Score: 0.225</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -5751,7 +5801,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MOUSE_20260823_001</t>
+          <t>MOUSE_20260824_001</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5764,12 +5814,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-08-23</t>
+          <t>2026-08-24</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>17:54:44</t>
+          <t>10:20:31</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -5778,58 +5828,58 @@
         </is>
       </c>
       <c r="K51" t="n">
-        <v>15712</v>
+        <v>15306</v>
       </c>
       <c r="L51" t="n">
-        <v>15712</v>
+        <v>15306</v>
       </c>
       <c r="M51" t="n">
-        <v>12908.08</v>
+        <v>26609.42</v>
       </c>
       <c r="N51" t="n">
-        <v>7744.85</v>
+        <v>15965.65</v>
       </c>
       <c r="O51" t="n">
-        <v>5163.23</v>
+        <v>10643.77</v>
       </c>
       <c r="P51" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="Q51" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="R51" t="n">
-        <v>170.38</v>
+        <v>70.17</v>
       </c>
       <c r="S51" t="n">
-        <v>75.76000000000001</v>
+        <v>379.23</v>
       </c>
       <c r="T51" t="n">
-        <v>12.98</v>
+        <v>41.05</v>
       </c>
       <c r="U51" t="n">
-        <v>45.46</v>
+        <v>227.54</v>
       </c>
       <c r="V51" t="n">
-        <v>30.3</v>
+        <v>151.69</v>
       </c>
       <c r="W51" t="n">
-        <v>22.85</v>
+        <v>27.85</v>
       </c>
       <c r="X51" t="n">
-        <v>25.04</v>
+        <v>12.06</v>
       </c>
       <c r="Y51" t="n">
-        <v>170.38</v>
+        <v>70.17</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.082</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2026-08-23 09:48:49</t>
+          <t>2026-08-24 11:19:59</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5839,7 +5889,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.832</t>
+          <t>Mouse session - Score: 0.084</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -5849,85 +5899,85 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MOUSE_20260823_002</t>
+          <t>MOUSE_20260824_002</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2026-08-24</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>11:19:59</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>6931</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6931</v>
+      </c>
+      <c r="M52" t="n">
+        <v>14574.44</v>
+      </c>
+      <c r="N52" t="n">
+        <v>8744.66</v>
+      </c>
+      <c r="O52" t="n">
+        <v>5829.78</v>
+      </c>
+      <c r="P52" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q52" t="n">
         <v>1</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2026-08-23</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>09:48:49</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
-        <v>14857</v>
-      </c>
-      <c r="L52" t="n">
-        <v>14857</v>
-      </c>
-      <c r="M52" t="n">
-        <v>38229.8</v>
-      </c>
-      <c r="N52" t="n">
-        <v>22937.88</v>
-      </c>
-      <c r="O52" t="n">
-        <v>15291.92</v>
-      </c>
-      <c r="P52" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>19</v>
-      </c>
       <c r="R52" t="n">
-        <v>66.65000000000001</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="S52" t="n">
-        <v>573.61</v>
+        <v>165.76</v>
       </c>
       <c r="T52" t="n">
-        <v>44.72</v>
+        <v>40.16</v>
       </c>
       <c r="U52" t="n">
-        <v>344.17</v>
+        <v>99.45999999999999</v>
       </c>
       <c r="V52" t="n">
-        <v>229.45</v>
+        <v>66.3</v>
       </c>
       <c r="W52" t="n">
-        <v>6.98</v>
+        <v>25.22</v>
       </c>
       <c r="X52" t="n">
-        <v>5.82</v>
+        <v>12.56</v>
       </c>
       <c r="Y52" t="n">
-        <v>66.65000000000001</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.832</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2026-08-24 11:08:36</t>
+          <t>2026-08-25 14:19:28</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5937,7 +5987,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.216</t>
+          <t>Mouse session - Score: 0.063</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -5947,7 +5997,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MOUSE_20260824_000</t>
+          <t>MOUSE_20260825_000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5960,12 +6010,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-08-24</t>
+          <t>2026-08-25</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>11:08:36</t>
+          <t>14:19:28</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -5974,58 +6024,58 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>23807</v>
+        <v>7797</v>
       </c>
       <c r="L53" t="n">
-        <v>23807</v>
+        <v>7797</v>
       </c>
       <c r="M53" t="n">
-        <v>14022.46</v>
+        <v>39534.59</v>
       </c>
       <c r="N53" t="n">
-        <v>8413.48</v>
+        <v>23720.76</v>
       </c>
       <c r="O53" t="n">
-        <v>5608.98</v>
+        <v>15813.84</v>
       </c>
       <c r="P53" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="Q53" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="R53" t="n">
-        <v>40.37</v>
+        <v>78.48</v>
       </c>
       <c r="S53" t="n">
-        <v>347.35</v>
+        <v>503.76</v>
       </c>
       <c r="T53" t="n">
-        <v>48.66</v>
+        <v>19.94</v>
       </c>
       <c r="U53" t="n">
-        <v>208.41</v>
+        <v>302.25</v>
       </c>
       <c r="V53" t="n">
-        <v>138.94</v>
+        <v>201.5</v>
       </c>
       <c r="W53" t="n">
-        <v>26.6</v>
+        <v>7.93</v>
       </c>
       <c r="X53" t="n">
-        <v>6.62</v>
+        <v>22.75</v>
       </c>
       <c r="Y53" t="n">
-        <v>40.37</v>
+        <v>78.48</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.216</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2026-08-24 11:56:51</t>
+          <t>2026-08-25 09:12:28</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6035,7 +6085,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.194</t>
+          <t>Mouse session - Score: 0.167</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -6045,7 +6095,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MOUSE_20260824_001</t>
+          <t>MOUSE_20260825_001</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -6058,12 +6108,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-08-24</t>
+          <t>2026-08-25</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>11:56:51</t>
+          <t>09:12:28</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -6072,58 +6122,58 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>14841</v>
+        <v>21250</v>
       </c>
       <c r="L54" t="n">
-        <v>14841</v>
+        <v>21250</v>
       </c>
       <c r="M54" t="n">
-        <v>37231.45</v>
+        <v>18840.98</v>
       </c>
       <c r="N54" t="n">
-        <v>22338.87</v>
+        <v>11304.59</v>
       </c>
       <c r="O54" t="n">
-        <v>14892.58</v>
+        <v>7536.39</v>
       </c>
       <c r="P54" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="Q54" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>171.09</v>
+        <v>101.81</v>
       </c>
       <c r="S54" t="n">
-        <v>217.61</v>
+        <v>185.06</v>
       </c>
       <c r="T54" t="n">
-        <v>21.58</v>
+        <v>37.17</v>
       </c>
       <c r="U54" t="n">
-        <v>130.56</v>
+        <v>111.04</v>
       </c>
       <c r="V54" t="n">
-        <v>87.04000000000001</v>
+        <v>74.03</v>
       </c>
       <c r="W54" t="n">
-        <v>7.26</v>
+        <v>20.82</v>
       </c>
       <c r="X54" t="n">
-        <v>19.2</v>
+        <v>7.45</v>
       </c>
       <c r="Y54" t="n">
-        <v>171.09</v>
+        <v>101.81</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.194</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2026-08-24 10:02:34</t>
+          <t>2026-08-25 15:20:43</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6133,7 +6183,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.164</t>
+          <t>Mouse session - Score: 0.058</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -6143,7 +6193,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MOUSE_20260824_002</t>
+          <t>MOUSE_20260825_002</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -6156,12 +6206,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-08-24</t>
+          <t>2026-08-25</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>10:02:34</t>
+          <t>15:20:43</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -6170,58 +6220,58 @@
         </is>
       </c>
       <c r="K55" t="n">
-        <v>24014</v>
+        <v>29897</v>
       </c>
       <c r="L55" t="n">
-        <v>24014</v>
+        <v>29897</v>
       </c>
       <c r="M55" t="n">
-        <v>12740.38</v>
+        <v>10053.77</v>
       </c>
       <c r="N55" t="n">
-        <v>7644.23</v>
+        <v>6032.26</v>
       </c>
       <c r="O55" t="n">
-        <v>5096.15</v>
+        <v>4021.51</v>
       </c>
       <c r="P55" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q55" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R55" t="n">
-        <v>157.04</v>
+        <v>34.32</v>
       </c>
       <c r="S55" t="n">
-        <v>81.13</v>
+        <v>292.91</v>
       </c>
       <c r="T55" t="n">
-        <v>8.699999999999999</v>
+        <v>29.8</v>
       </c>
       <c r="U55" t="n">
-        <v>48.68</v>
+        <v>175.75</v>
       </c>
       <c r="V55" t="n">
-        <v>32.45</v>
+        <v>117.17</v>
       </c>
       <c r="W55" t="n">
-        <v>21.19</v>
+        <v>19.12</v>
       </c>
       <c r="X55" t="n">
-        <v>11.46</v>
+        <v>21.25</v>
       </c>
       <c r="Y55" t="n">
-        <v>157.04</v>
+        <v>34.32</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.164</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026-08-25 10:31:56</t>
+          <t>2026-08-26 09:48:23</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6231,7 +6281,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.122</t>
+          <t>Mouse session - Score: 0.152</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -6241,7 +6291,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MOUSE_20260825_000</t>
+          <t>MOUSE_20260826_000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -6254,12 +6304,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-08-25</t>
+          <t>2026-08-26</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>10:31:56</t>
+          <t>09:48:23</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -6268,58 +6318,58 @@
         </is>
       </c>
       <c r="K56" t="n">
-        <v>12155</v>
+        <v>6140</v>
       </c>
       <c r="L56" t="n">
-        <v>12155</v>
+        <v>6140</v>
       </c>
       <c r="M56" t="n">
-        <v>25856.11</v>
+        <v>15489.46</v>
       </c>
       <c r="N56" t="n">
-        <v>15513.67</v>
+        <v>9293.67</v>
       </c>
       <c r="O56" t="n">
-        <v>10342.44</v>
+        <v>6195.78</v>
       </c>
       <c r="P56" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="Q56" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="R56" t="n">
-        <v>32.24</v>
+        <v>53.54</v>
       </c>
       <c r="S56" t="n">
-        <v>801.9</v>
+        <v>289.3</v>
       </c>
       <c r="T56" t="n">
-        <v>29.81</v>
+        <v>24.71</v>
       </c>
       <c r="U56" t="n">
-        <v>481.14</v>
+        <v>173.58</v>
       </c>
       <c r="V56" t="n">
-        <v>320.76</v>
+        <v>115.72</v>
       </c>
       <c r="W56" t="n">
-        <v>24.68</v>
+        <v>17.14</v>
       </c>
       <c r="X56" t="n">
-        <v>19.29</v>
+        <v>8.65</v>
       </c>
       <c r="Y56" t="n">
-        <v>32.24</v>
+        <v>53.54</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.122</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2026-08-25 13:05:45</t>
+          <t>2026-08-26 14:43:40</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -6329,7 +6379,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.121</t>
+          <t>Mouse session - Score: 0.146</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -6339,7 +6389,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MOUSE_20260825_001</t>
+          <t>MOUSE_20260826_001</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -6352,12 +6402,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-08-25</t>
+          <t>2026-08-26</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>13:05:45</t>
+          <t>14:43:40</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -6366,58 +6416,58 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>19553</v>
+        <v>8651</v>
       </c>
       <c r="L57" t="n">
-        <v>19553</v>
+        <v>8651</v>
       </c>
       <c r="M57" t="n">
-        <v>24093.29</v>
+        <v>26994.72</v>
       </c>
       <c r="N57" t="n">
-        <v>14455.98</v>
+        <v>16196.83</v>
       </c>
       <c r="O57" t="n">
-        <v>9637.32</v>
+        <v>10797.89</v>
       </c>
       <c r="P57" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="Q57" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="R57" t="n">
-        <v>130.26</v>
+        <v>132.39</v>
       </c>
       <c r="S57" t="n">
-        <v>184.96</v>
+        <v>203.9</v>
       </c>
       <c r="T57" t="n">
-        <v>14.3</v>
+        <v>49.3</v>
       </c>
       <c r="U57" t="n">
-        <v>110.98</v>
+        <v>122.34</v>
       </c>
       <c r="V57" t="n">
-        <v>73.98999999999999</v>
+        <v>81.56</v>
       </c>
       <c r="W57" t="n">
-        <v>16.88</v>
+        <v>21.59</v>
       </c>
       <c r="X57" t="n">
-        <v>28.2</v>
+        <v>18.59</v>
       </c>
       <c r="Y57" t="n">
-        <v>130.26</v>
+        <v>132.39</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.121</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2026-08-25 16:27:24</t>
+          <t>2026-08-26 09:55:21</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -6427,7 +6477,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.115</t>
+          <t>Mouse session - Score: 0.146</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -6437,7 +6487,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MOUSE_20260825_002</t>
+          <t>MOUSE_20260826_002</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -6450,12 +6500,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-08-25</t>
+          <t>2026-08-26</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>16:27:24</t>
+          <t>09:55:21</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -6464,58 +6514,58 @@
         </is>
       </c>
       <c r="K58" t="n">
-        <v>16399</v>
+        <v>28201</v>
       </c>
       <c r="L58" t="n">
-        <v>16399</v>
+        <v>28201</v>
       </c>
       <c r="M58" t="n">
-        <v>31857.35</v>
+        <v>32366.2</v>
       </c>
       <c r="N58" t="n">
-        <v>19114.41</v>
+        <v>19419.72</v>
       </c>
       <c r="O58" t="n">
-        <v>12742.94</v>
+        <v>12946.48</v>
       </c>
       <c r="P58" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q58" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R58" t="n">
-        <v>64.53</v>
+        <v>139.88</v>
       </c>
       <c r="S58" t="n">
-        <v>493.7</v>
+        <v>231.39</v>
       </c>
       <c r="T58" t="n">
-        <v>19.43</v>
+        <v>17.53</v>
       </c>
       <c r="U58" t="n">
-        <v>296.22</v>
+        <v>138.83</v>
       </c>
       <c r="V58" t="n">
-        <v>197.48</v>
+        <v>92.55</v>
       </c>
       <c r="W58" t="n">
-        <v>27.5</v>
+        <v>28.43</v>
       </c>
       <c r="X58" t="n">
-        <v>29.71</v>
+        <v>11.32</v>
       </c>
       <c r="Y58" t="n">
-        <v>64.53</v>
+        <v>139.88</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.115</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2026-08-26 16:17:43</t>
+          <t>2026-08-27 13:32:00</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6525,7 +6575,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.209</t>
+          <t>Mouse session - Score: 0.141</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -6535,7 +6585,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MOUSE_20260826_000</t>
+          <t>MOUSE_20260827_000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -6548,12 +6598,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-08-26</t>
+          <t>2026-08-27</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>16:17:43</t>
+          <t>13:32:00</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -6562,58 +6612,58 @@
         </is>
       </c>
       <c r="K59" t="n">
-        <v>10495</v>
+        <v>21689</v>
       </c>
       <c r="L59" t="n">
-        <v>10495</v>
+        <v>21689</v>
       </c>
       <c r="M59" t="n">
-        <v>28998.33</v>
+        <v>22889.99</v>
       </c>
       <c r="N59" t="n">
-        <v>17399</v>
+        <v>13733.99</v>
       </c>
       <c r="O59" t="n">
-        <v>11599.33</v>
+        <v>9155.99</v>
       </c>
       <c r="P59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q59" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R59" t="n">
-        <v>84.26000000000001</v>
+        <v>171.75</v>
       </c>
       <c r="S59" t="n">
-        <v>344.15</v>
+        <v>133.27</v>
       </c>
       <c r="T59" t="n">
-        <v>18.34</v>
+        <v>15.73</v>
       </c>
       <c r="U59" t="n">
-        <v>206.49</v>
+        <v>79.95999999999999</v>
       </c>
       <c r="V59" t="n">
-        <v>137.66</v>
+        <v>53.31</v>
       </c>
       <c r="W59" t="n">
-        <v>25.1</v>
+        <v>11.85</v>
       </c>
       <c r="X59" t="n">
-        <v>27.59</v>
+        <v>22.02</v>
       </c>
       <c r="Y59" t="n">
-        <v>84.26000000000001</v>
+        <v>171.75</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.209</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2026-08-26 16:42:33</t>
+          <t>2026-08-27 11:28:53</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6623,7 +6673,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.099</t>
+          <t>Mouse session - Score: 0.171</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -6633,7 +6683,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MOUSE_20260826_001</t>
+          <t>MOUSE_20260827_001</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -6646,12 +6696,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-08-26</t>
+          <t>2026-08-27</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>16:42:33</t>
+          <t>11:28:53</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -6660,58 +6710,58 @@
         </is>
       </c>
       <c r="K60" t="n">
-        <v>16758</v>
+        <v>16546</v>
       </c>
       <c r="L60" t="n">
-        <v>16758</v>
+        <v>16546</v>
       </c>
       <c r="M60" t="n">
-        <v>5024.67</v>
+        <v>34764.84</v>
       </c>
       <c r="N60" t="n">
-        <v>3014.8</v>
+        <v>20858.9</v>
       </c>
       <c r="O60" t="n">
-        <v>2009.87</v>
+        <v>13905.93</v>
       </c>
       <c r="P60" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q60" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R60" t="n">
-        <v>78.88</v>
+        <v>104.5</v>
       </c>
       <c r="S60" t="n">
-        <v>63.7</v>
+        <v>332.69</v>
       </c>
       <c r="T60" t="n">
-        <v>41.69</v>
+        <v>32.86</v>
       </c>
       <c r="U60" t="n">
-        <v>38.22</v>
+        <v>199.61</v>
       </c>
       <c r="V60" t="n">
-        <v>25.48</v>
+        <v>133.08</v>
       </c>
       <c r="W60" t="n">
-        <v>16.43</v>
+        <v>19.25</v>
       </c>
       <c r="X60" t="n">
-        <v>18.87</v>
+        <v>20.6</v>
       </c>
       <c r="Y60" t="n">
-        <v>78.88</v>
+        <v>104.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.099</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2026-08-26 10:18:12</t>
+          <t>2026-08-27 15:36:49</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6721,7 +6771,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.205</t>
+          <t>Mouse session - Score: 0.063</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -6731,7 +6781,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MOUSE_20260826_002</t>
+          <t>MOUSE_20260827_002</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -6744,12 +6794,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-08-26</t>
+          <t>2026-08-27</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>10:18:12</t>
+          <t>15:36:49</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -6758,58 +6808,58 @@
         </is>
       </c>
       <c r="K61" t="n">
-        <v>28116</v>
+        <v>10172</v>
       </c>
       <c r="L61" t="n">
-        <v>28116</v>
+        <v>10172</v>
       </c>
       <c r="M61" t="n">
-        <v>12818.05</v>
+        <v>25304.51</v>
       </c>
       <c r="N61" t="n">
-        <v>7690.83</v>
+        <v>15182.71</v>
       </c>
       <c r="O61" t="n">
-        <v>5127.22</v>
+        <v>10121.8</v>
       </c>
       <c r="P61" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="Q61" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R61" t="n">
-        <v>43.47</v>
+        <v>102.86</v>
       </c>
       <c r="S61" t="n">
-        <v>294.88</v>
+        <v>246</v>
       </c>
       <c r="T61" t="n">
-        <v>42.59</v>
+        <v>14.99</v>
       </c>
       <c r="U61" t="n">
-        <v>176.93</v>
+        <v>147.6</v>
       </c>
       <c r="V61" t="n">
-        <v>117.95</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="W61" t="n">
-        <v>21.32</v>
+        <v>20.61</v>
       </c>
       <c r="X61" t="n">
-        <v>26.47</v>
+        <v>29.85</v>
       </c>
       <c r="Y61" t="n">
-        <v>43.47</v>
+        <v>102.86</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.205</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026-08-27 13:57:58</t>
+          <t>2026-08-28 16:45:25</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6819,7 +6869,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.193</t>
+          <t>Mouse session - Score: 0.185</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -6829,7 +6879,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MOUSE_20260827_000</t>
+          <t>MOUSE_20260828_000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -6842,12 +6892,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-08-27</t>
+          <t>2026-08-28</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>13:57:58</t>
+          <t>16:45:25</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -6856,58 +6906,58 @@
         </is>
       </c>
       <c r="K62" t="n">
-        <v>20775</v>
+        <v>20235</v>
       </c>
       <c r="L62" t="n">
-        <v>20775</v>
+        <v>20235</v>
       </c>
       <c r="M62" t="n">
-        <v>6059.68</v>
+        <v>34393.78</v>
       </c>
       <c r="N62" t="n">
-        <v>3635.81</v>
+        <v>20636.27</v>
       </c>
       <c r="O62" t="n">
-        <v>2423.87</v>
+        <v>13757.51</v>
       </c>
       <c r="P62" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="Q62" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="R62" t="n">
-        <v>38.88</v>
+        <v>175.77</v>
       </c>
       <c r="S62" t="n">
-        <v>155.84</v>
+        <v>195.68</v>
       </c>
       <c r="T62" t="n">
-        <v>49.21</v>
+        <v>18.89</v>
       </c>
       <c r="U62" t="n">
-        <v>93.5</v>
+        <v>117.41</v>
       </c>
       <c r="V62" t="n">
-        <v>62.34</v>
+        <v>78.27</v>
       </c>
       <c r="W62" t="n">
-        <v>9.220000000000001</v>
+        <v>18.42</v>
       </c>
       <c r="X62" t="n">
-        <v>15.98</v>
+        <v>13.79</v>
       </c>
       <c r="Y62" t="n">
-        <v>38.88</v>
+        <v>175.77</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.193</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2026-08-27 14:55:00</t>
+          <t>2026-08-28 14:28:13</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6917,7 +6967,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.210</t>
+          <t>Mouse session - Score: 0.120</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -6927,7 +6977,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MOUSE_20260827_001</t>
+          <t>MOUSE_20260828_001</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6940,12 +6990,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-08-27</t>
+          <t>2026-08-28</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>14:55:00</t>
+          <t>14:28:13</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -6954,58 +7004,58 @@
         </is>
       </c>
       <c r="K63" t="n">
-        <v>14657</v>
+        <v>11515</v>
       </c>
       <c r="L63" t="n">
-        <v>14657</v>
+        <v>11515</v>
       </c>
       <c r="M63" t="n">
-        <v>24818.42</v>
+        <v>10734.14</v>
       </c>
       <c r="N63" t="n">
-        <v>14891.05</v>
+        <v>6440.49</v>
       </c>
       <c r="O63" t="n">
-        <v>9927.370000000001</v>
+        <v>4293.66</v>
       </c>
       <c r="P63" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q63" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="R63" t="n">
-        <v>123.3</v>
+        <v>37.98</v>
       </c>
       <c r="S63" t="n">
-        <v>201.29</v>
+        <v>282.6</v>
       </c>
       <c r="T63" t="n">
-        <v>34.23</v>
+        <v>18.34</v>
       </c>
       <c r="U63" t="n">
-        <v>120.78</v>
+        <v>169.56</v>
       </c>
       <c r="V63" t="n">
-        <v>80.52</v>
+        <v>113.04</v>
       </c>
       <c r="W63" t="n">
-        <v>2.93</v>
+        <v>28.89</v>
       </c>
       <c r="X63" t="n">
-        <v>22.68</v>
+        <v>20.96</v>
       </c>
       <c r="Y63" t="n">
-        <v>123.3</v>
+        <v>37.98</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2026-08-27 13:41:34</t>
+          <t>2026-08-28 09:46:35</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -7015,7 +7065,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.236</t>
+          <t>Mouse session - Score: 0.092</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -7025,7 +7075,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MOUSE_20260827_002</t>
+          <t>MOUSE_20260828_002</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -7038,12 +7088,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-08-27</t>
+          <t>2026-08-28</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>13:41:34</t>
+          <t>09:46:35</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -7052,346 +7102,52 @@
         </is>
       </c>
       <c r="K64" t="n">
-        <v>23531</v>
+        <v>23868</v>
       </c>
       <c r="L64" t="n">
-        <v>23531</v>
+        <v>23868</v>
       </c>
       <c r="M64" t="n">
-        <v>38543.68</v>
+        <v>19968.29</v>
       </c>
       <c r="N64" t="n">
-        <v>23126.21</v>
+        <v>11980.97</v>
       </c>
       <c r="O64" t="n">
-        <v>15417.47</v>
+        <v>7987.31</v>
       </c>
       <c r="P64" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Q64" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="R64" t="n">
-        <v>72.59999999999999</v>
+        <v>46.4</v>
       </c>
       <c r="S64" t="n">
-        <v>530.88</v>
+        <v>430.35</v>
       </c>
       <c r="T64" t="n">
-        <v>32.51</v>
+        <v>20.82</v>
       </c>
       <c r="U64" t="n">
-        <v>318.53</v>
+        <v>258.21</v>
       </c>
       <c r="V64" t="n">
-        <v>212.35</v>
+        <v>172.14</v>
       </c>
       <c r="W64" t="n">
-        <v>5.49</v>
+        <v>20.91</v>
       </c>
       <c r="X64" t="n">
-        <v>4.14</v>
+        <v>24.37</v>
       </c>
       <c r="Y64" t="n">
-        <v>72.59999999999999</v>
+        <v>46.4</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.236</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2026-08-28 17:20:02</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>MOUSE_SESSION</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Mouse session - Score: 0.134</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>EM001</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>MOUSE_20260828_000</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2026-08-28</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>17:20:02</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-      <c r="K65" t="n">
-        <v>5858</v>
-      </c>
-      <c r="L65" t="n">
-        <v>5858</v>
-      </c>
-      <c r="M65" t="n">
-        <v>25491.23</v>
-      </c>
-      <c r="N65" t="n">
-        <v>15294.74</v>
-      </c>
-      <c r="O65" t="n">
-        <v>10196.49</v>
-      </c>
-      <c r="P65" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>13</v>
-      </c>
-      <c r="R65" t="n">
-        <v>113.64</v>
-      </c>
-      <c r="S65" t="n">
-        <v>224.32</v>
-      </c>
-      <c r="T65" t="n">
-        <v>44.66</v>
-      </c>
-      <c r="U65" t="n">
-        <v>134.59</v>
-      </c>
-      <c r="V65" t="n">
-        <v>89.73</v>
-      </c>
-      <c r="W65" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="X65" t="n">
-        <v>27.12</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>113.64</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>0.134</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2026-08-28 16:47:31</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>MOUSE_SESSION</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Mouse session - Score: 0.911</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>EM001</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>MOUSE_20260828_001</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2026-08-28</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>16:47:31</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-      <c r="K66" t="n">
-        <v>14897</v>
-      </c>
-      <c r="L66" t="n">
-        <v>14897</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5907.71</v>
-      </c>
-      <c r="N66" t="n">
-        <v>3544.63</v>
-      </c>
-      <c r="O66" t="n">
-        <v>2363.09</v>
-      </c>
-      <c r="P66" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>20</v>
-      </c>
-      <c r="R66" t="n">
-        <v>149.68</v>
-      </c>
-      <c r="S66" t="n">
-        <v>39.47</v>
-      </c>
-      <c r="T66" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="U66" t="n">
-        <v>23.68</v>
-      </c>
-      <c r="V66" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="W66" t="n">
-        <v>29.43</v>
-      </c>
-      <c r="X66" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>149.68</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>0.911</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2026-08-28 12:30:50</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>MOUSE_SESSION</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Mouse session - Score: 0.914</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>EM001</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>MOUSE_20260828_002</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>1</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2026-08-28</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>12:30:50</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-      <c r="K67" t="n">
-        <v>17142</v>
-      </c>
-      <c r="L67" t="n">
-        <v>17142</v>
-      </c>
-      <c r="M67" t="n">
-        <v>24601.57</v>
-      </c>
-      <c r="N67" t="n">
-        <v>14760.94</v>
-      </c>
-      <c r="O67" t="n">
-        <v>9840.629999999999</v>
-      </c>
-      <c r="P67" t="n">
-        <v>45</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>5</v>
-      </c>
-      <c r="R67" t="n">
-        <v>97.62</v>
-      </c>
-      <c r="S67" t="n">
-        <v>252.01</v>
-      </c>
-      <c r="T67" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="U67" t="n">
-        <v>151.21</v>
-      </c>
-      <c r="V67" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="W67" t="n">
-        <v>19.09</v>
-      </c>
-      <c r="X67" t="n">
-        <v>18.36</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>97.62</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>0.914</v>
+        <v>0.092</v>
       </c>
     </row>
   </sheetData>
@@ -7468,20 +7224,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-08-03 13:40:00</t>
+          <t>2026-08-03 14:35:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-08-03 17:54:19</t>
+          <t>2026-08-03 23:17:39</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15259</v>
+        <v>31359</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>04:14:00</t>
+          <t>08:42:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -7498,7 +7254,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BROWSER_20260803_01</t>
+          <t>BROWSER_20260804_00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7508,25 +7264,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-08-03 12:54:00</t>
+          <t>2026-08-04 09:50:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-08-03 16:59:44</t>
+          <t>2026-08-04 16:58:47</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>14744</v>
+        <v>25727</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>04:05:00</t>
+          <t>07:08:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-08-03</t>
+          <t>2026-08-04</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -7538,7 +7294,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BROWSER_20260804_00</t>
+          <t>BROWSER_20260805_00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7548,25 +7304,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2026-08-04 08:07:00</t>
+          <t>2026-08-05 13:50:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-08-04 15:16:07</t>
+          <t>2026-08-05 20:54:21</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25747</v>
+        <v>25461</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>07:09:00</t>
+          <t>07:04:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-08-04</t>
+          <t>2026-08-05</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -7578,7 +7334,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BROWSER_20260805_00</t>
+          <t>BROWSER_20260806_00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7588,25 +7344,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-08-05 14:22:00</t>
+          <t>2026-08-06 14:18:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-08-05 18:28:59</t>
+          <t>2026-08-06 22:15:34</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>14819</v>
+        <v>28654</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>04:06:00</t>
+          <t>07:57:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-08-05</t>
+          <t>2026-08-06</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -7618,7 +7374,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BROWSER_20260805_01</t>
+          <t>BROWSER_20260807_00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7628,25 +7384,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-08-05 13:52:00</t>
+          <t>2026-08-07 14:56:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-08-05 17:49:14</t>
+          <t>2026-08-07 22:05:23</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>14234</v>
+        <v>25763</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>03:57:00</t>
+          <t>07:09:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-08-05</t>
+          <t>2026-08-07</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -7658,7 +7414,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BROWSER_20260806_00</t>
+          <t>BROWSER_20260810_00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7668,25 +7424,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2026-08-06 09:59:00</t>
+          <t>2026-08-10 11:46:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-08-06 17:15:50</t>
+          <t>2026-08-10 18:46:52</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26210</v>
+        <v>25252</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>07:16:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-08-06</t>
+          <t>2026-08-10</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -7698,7 +7454,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BROWSER_20260807_00</t>
+          <t>BROWSER_20260811_00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7708,25 +7464,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2026-08-07 10:23:00</t>
+          <t>2026-08-11 10:57:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-08-07 14:40:20</t>
+          <t>2026-08-11 15:22:54</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>15440</v>
+        <v>15954</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>04:17:00</t>
+          <t>04:25:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-08-07</t>
+          <t>2026-08-11</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -7738,7 +7494,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BROWSER_20260807_01</t>
+          <t>BROWSER_20260811_01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7748,25 +7504,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2026-08-07 12:33:00</t>
+          <t>2026-08-11 14:50:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-08-07 16:52:19</t>
+          <t>2026-08-11 18:52:40</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>15559</v>
+        <v>14560</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>04:19:00</t>
+          <t>04:02:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-08-07</t>
+          <t>2026-08-11</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -7778,7 +7534,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BROWSER_20260810_00</t>
+          <t>BROWSER_20260812_00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7788,25 +7544,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2026-08-10 13:29:00</t>
+          <t>2026-08-12 14:15:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-08-10 21:02:58</t>
+          <t>2026-08-12 21:28:23</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27238</v>
+        <v>26003</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>07:33:00</t>
+          <t>07:13:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-08-10</t>
+          <t>2026-08-12</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -7818,7 +7574,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BROWSER_20260811_00</t>
+          <t>BROWSER_20260813_00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7828,25 +7584,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2026-08-11 09:59:00</t>
+          <t>2026-08-13 15:05:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-08-11 17:08:59</t>
+          <t>2026-08-13 23:55:56</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25799</v>
+        <v>31856</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>07:09:00</t>
+          <t>08:50:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-08-11</t>
+          <t>2026-08-13</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7858,7 +7614,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BROWSER_20260812_00</t>
+          <t>BROWSER_20260814_00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7868,25 +7624,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2026-08-12 14:28:00</t>
+          <t>2026-08-14 09:36:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-08-12 18:41:03</t>
+          <t>2026-08-14 17:43:15</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>15183</v>
+        <v>29235</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>04:13:00</t>
+          <t>08:07:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-08-12</t>
+          <t>2026-08-14</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -7898,7 +7654,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BROWSER_20260812_01</t>
+          <t>BROWSER_20260817_00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7908,25 +7664,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2026-08-12 13:54:00</t>
+          <t>2026-08-17 11:38:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-08-12 17:56:34</t>
+          <t>2026-08-17 15:44:51</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>14554</v>
+        <v>14811</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>04:02:00</t>
+          <t>04:06:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-08-12</t>
+          <t>2026-08-17</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7938,7 +7694,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BROWSER_20260813_00</t>
+          <t>BROWSER_20260817_01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7948,25 +7704,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2026-08-13 08:49:00</t>
+          <t>2026-08-17 14:10:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-08-13 12:23:02</t>
+          <t>2026-08-17 18:04:38</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12842</v>
+        <v>14078</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>03:34:00</t>
+          <t>03:54:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-08-13</t>
+          <t>2026-08-17</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7978,7 +7734,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BROWSER_20260813_01</t>
+          <t>BROWSER_20260818_00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7988,25 +7744,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2026-08-13 12:23:00</t>
+          <t>2026-08-18 10:47:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-08-13 16:43:03</t>
+          <t>2026-08-18 14:25:55</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15603</v>
+        <v>13135</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>04:20:00</t>
+          <t>03:38:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-08-13</t>
+          <t>2026-08-18</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -8018,7 +7774,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BROWSER_20260814_00</t>
+          <t>BROWSER_20260818_01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -8028,25 +7784,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2026-08-14 10:07:00</t>
+          <t>2026-08-18 12:25:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-08-14 13:50:15</t>
+          <t>2026-08-18 16:09:46</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>13395</v>
+        <v>13486</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>03:43:00</t>
+          <t>03:44:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-08-14</t>
+          <t>2026-08-18</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -8058,7 +7814,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BROWSER_20260814_01</t>
+          <t>BROWSER_20260819_00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -8068,25 +7824,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2026-08-14 15:29:00</t>
+          <t>2026-08-19 15:33:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2026-08-14 19:07:13</t>
+          <t>2026-08-19 19:51:22</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13093</v>
+        <v>15502</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>03:38:00</t>
+          <t>04:18:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-08-14</t>
+          <t>2026-08-19</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -8098,7 +7854,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BROWSER_20260817_00</t>
+          <t>BROWSER_20260819_01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -8108,25 +7864,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2026-08-17 08:14:00</t>
+          <t>2026-08-19 09:22:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2026-08-17 15:22:16</t>
+          <t>2026-08-19 13:09:26</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25696</v>
+        <v>13646</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>07:08:00</t>
+          <t>03:47:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-08-17</t>
+          <t>2026-08-19</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -8138,7 +7894,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BROWSER_20260818_00</t>
+          <t>BROWSER_20260820_00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -8148,25 +7904,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2026-08-18 11:01:00</t>
+          <t>2026-08-20 09:38:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-08-18 18:16:58</t>
+          <t>2026-08-20 13:39:44</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>26158</v>
+        <v>14504</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>07:15:00</t>
+          <t>04:01:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-08-18</t>
+          <t>2026-08-20</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -8178,7 +7934,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BROWSER_20260819_00</t>
+          <t>BROWSER_20260820_01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -8188,25 +7944,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2026-08-19 09:14:00</t>
+          <t>2026-08-20 15:47:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2026-08-19 18:05:42</t>
+          <t>2026-08-20 19:25:55</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>31902</v>
+        <v>13135</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>08:51:00</t>
+          <t>03:38:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-08-19</t>
+          <t>2026-08-20</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -8218,7 +7974,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BROWSER_20260820_00</t>
+          <t>BROWSER_20260821_00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -8228,25 +7984,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2026-08-20 14:56:00</t>
+          <t>2026-08-21 15:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2026-08-20 23:13:50</t>
+          <t>2026-08-21 19:34:37</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29870</v>
+        <v>14677</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>08:17:00</t>
+          <t>04:04:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-08-20</t>
+          <t>2026-08-21</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -8258,7 +8014,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BROWSER_20260821_00</t>
+          <t>BROWSER_20260821_01</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -8268,20 +8024,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2026-08-21 12:54:00</t>
+          <t>2026-08-21 14:56:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2026-08-21 21:47:50</t>
+          <t>2026-08-21 18:42:42</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>32030</v>
+        <v>13602</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>08:53:00</t>
+          <t>03:46:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -8308,20 +8064,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2026-08-24 13:48:00</t>
+          <t>2026-08-24 08:29:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2026-08-24 20:52:53</t>
+          <t>2026-08-24 16:19:06</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>25493</v>
+        <v>28206</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>07:04:00</t>
+          <t>07:50:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -8348,20 +8104,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2026-08-25 12:00:00</t>
+          <t>2026-08-25 15:26:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2026-08-25 19:19:29</t>
+          <t>2026-08-25 23:54:08</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>26369</v>
+        <v>30488</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>07:19:00</t>
+          <t>08:28:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -8388,20 +8144,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2026-08-26 15:53:00</t>
+          <t>2026-08-26 12:43:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2026-08-26 22:58:15</t>
+          <t>2026-08-26 16:17:04</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>25515</v>
+        <v>12844</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>07:05:00</t>
+          <t>03:34:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8418,7 +8174,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BROWSER_20260827_00</t>
+          <t>BROWSER_20260826_01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -8428,25 +8184,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2026-08-27 15:26:00</t>
+          <t>2026-08-26 11:54:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2026-08-27 19:16:01</t>
+          <t>2026-08-26 15:57:27</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>13801</v>
+        <v>14607</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>03:50:00</t>
+          <t>04:03:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-08-27</t>
+          <t>2026-08-26</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -8458,7 +8214,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BROWSER_20260827_01</t>
+          <t>BROWSER_20260827_00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -8468,20 +8224,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2026-08-27 14:45:00</t>
+          <t>2026-08-27 10:21:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2026-08-27 18:19:40</t>
+          <t>2026-08-27 17:32:14</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>12880</v>
+        <v>25874</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>03:34:00</t>
+          <t>07:11:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -8508,20 +8264,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2026-08-28 12:44:00</t>
+          <t>2026-08-28 09:58:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2026-08-28 17:11:40</t>
+          <t>2026-08-28 13:33:36</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>16060</v>
+        <v>12936</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>04:27:00</t>
+          <t>03:35:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -8548,20 +8304,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2026-08-28 08:59:00</t>
+          <t>2026-08-28 13:58:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2026-08-28 13:16:26</t>
+          <t>2026-08-28 18:27:50</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>15446</v>
+        <v>16190</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>04:17:00</t>
+          <t>04:29:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
